--- a/Data_effects_complete.xlsx
+++ b/Data_effects_complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenz-spreen/review_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l.oswald/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3EA55D-5CE9-D04B-8118-FDE20C3A91A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347C96C6-C216-C449-891A-4FA5A403138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6478" uniqueCount="2390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="2677">
   <si>
     <t>Key</t>
   </si>
@@ -7202,6 +7202,867 @@
   </si>
   <si>
     <t>political blogs</t>
+  </si>
+  <si>
+    <t>Q6J6G4SK</t>
+  </si>
+  <si>
+    <t>Martin, JD; Hassan, F</t>
+  </si>
+  <si>
+    <t>Testing Classical Predictors of Public Willingness to Censor on the Desire to Block Fake News Online</t>
+  </si>
+  <si>
+    <t>CONVERGENCE-THE INTERNATIONAL JOURNAL OF RESEARCH INTO NEW MEDIA TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>10.1177/13548565211012552</t>
+  </si>
+  <si>
+    <t>This study examined media use and attitudinal predictors of public willingness to censor fake online political news among representative samples in Lebanon, Saudi Arabia, and Tunisia (total N = 2880). The study utilized research on the corrective action hypothesis (CAH) and the theory of presumed media influence (TPMI) as frameworks. The CAH holds that an individual's belief that media are hostile and influential increases the likelihood that the individual will participate in public discourse urging countermeasures. TPMI maintains that the belief that media are influential is associated with attitudes about media, though those attitudes need not be negative. Perceived exposure to fake news online positively predicted willingness to censor fake news in all countries, aligning with some prior research on both the CAH and the TPMI. Facebook use was negatively associated with willingness to censor fake news in two of the countries, while trust in news media was a positive correlate in two countries. Implications for research on both willingness to censor and on fake news are discussed.</t>
+  </si>
+  <si>
+    <t>censor willingness</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>2T9H4593</t>
+  </si>
+  <si>
+    <t>Steffan, D.</t>
+  </si>
+  <si>
+    <t>Visual Self-Presentation Strategies of Political Candidates on Social Media Platforms: A Comparative Study</t>
+  </si>
+  <si>
+    <t>This study investigates the visual self-presentation of political candidates on different social media platforms (Facebook, Instagram, and Twitter) in seven Western democracies (Austria, Canada, France, Germany, Norway, the United Kingdom, and the United States). Drawing on Grabe and Bucy’s visual framing approach, I conducted a quantitative content analysis of visual social media posts (N = 2,272) of the top two candidates who ran for the chief executive governmental office in the respective election campaigns. The results reveal that candidates are more likely to use the ideal candidate frame than that of the populist campaigner. The use of visual frames differs significantly among countries, but those differences are limited. It seems that differences among candidates within countries are more pronounced than among countries. The results also indicate that Instagram is the preferred platform for visual self-presentation. This study provides insights into the strategic use of visuals in social media campaigning. Copyright © 2020 (Dennis Steffan)</t>
+  </si>
+  <si>
+    <t>political strategies,visual self-presentation, political campaign</t>
+  </si>
+  <si>
+    <t>GEYL23Q7</t>
+  </si>
+  <si>
+    <t>Guenther, L.; Ruhrmann, G.; Bischoff, J.; Penzel, T.; Weber, A.</t>
+  </si>
+  <si>
+    <t>Strategic Framing and Social Media Engagement: Analyzing Memes Posted by the German Identitarian Movement on Facebook</t>
+  </si>
+  <si>
+    <t>10.1177/2056305119898777</t>
+  </si>
+  <si>
+    <t>While officially classified as a right-wing movement, the German Identitarian Movement (GIM) claims to be neither left nor right wing but rather identitarian. The social movement stands for what they call “ethno-pluralism,” communicated online without intermediate gatekeepers, in supposedly socially acceptable messages. Without a clear classification to a political wing, some Internet users encountering information created by the GIM could have difficulties assessing what this movement really stands for and what identitarian means. That is why this study examined strategic frames in a full sample of memes (N = 511) posted by the movement on their Facebook page, because memes (here: image macros) have been the GIM’s main form of communication on Facebook. This study identified six strategic frames that represent a plurality of different social issues; some of them call for immediate action. Hence, the movement’s strategic framing goes far beyond emphasizing “ethno-pluralism.” The findings elucidate the overall communication strategies of the movement and show that the frames represent characteristics and semantics of the New Right. These frames also triggered different levels of social media engagement. © The Author(s) 2020.</t>
+  </si>
+  <si>
+    <t>political strategies,political self-presentation</t>
+  </si>
+  <si>
+    <t>W7H8BFEA</t>
+  </si>
+  <si>
+    <t>Kushin, Matthew J.; Yamamoto, Masahiro; Dalisay, Francis</t>
+  </si>
+  <si>
+    <t>Societal Majority, Facebook, and the Spiral of Silence in the 2016 US Presidential Election</t>
+  </si>
+  <si>
+    <t>10.1177/2056305119855139</t>
+  </si>
+  <si>
+    <t>The 2016 US presidential election was highly contentious, as both candidates, Hillary Clinton and Donald Trump, received strong polarizing support and opposition with controversial campaigns, name-calling, and violence at campaign rallies. This may have contributed to an opinion climate where citizens were reluctant to express support for a candidate. This study tests the spiral of silence theory in the context of this election. We examine the interplay among opinion congruency, fear of isolation, and willingness to express support for a candidate. Data from an online survey show that opinion congruency for Clinton in society at large, and for Trump on Facebook, had indirect associations with willingness to express support for a candidate face-to-face, on Facebook, and in anonymous online settings through fear of isolation.</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>self-censorship, political expression</t>
+  </si>
+  <si>
+    <t>S538S35D</t>
+  </si>
+  <si>
+    <t>Powers, Elia; Koliska, Michael; Guha, Pallavi</t>
+  </si>
+  <si>
+    <t>"Shouting Matches and Echo Chambers": Perceived Identity Threats and Political Self-Censorship on Social Media</t>
+  </si>
+  <si>
+    <t>This mixed-methods study, conducted during the highly polarizing and uncivil 2016 U.S. presidential election, examines how college students' conceptions of audience and the tone of discourse on social media informed their decisions to express or withhold political opinions. A preelection survey found that students (N = 198) preferred to discuss political views offline rather than on social media. Postelection focus groups (N = 196) found near consensus that posting political opinions on social media was an ineffective way to persuade others or break new ground in political dialogue. Participants perceived no benefit to sharing opinions that had already widely circulated within their politically homogenous social network, and they sought to avoid conflicts they witnessed when outspoken members of their networks engaged with people with whom they disagreed. We explore how students' impression management and perceived identity threats led them to limit political expression on social media despite having strong interest in and feelings about the election.</t>
+  </si>
+  <si>
+    <t>political expression,sharing and self censorship, political expression</t>
+  </si>
+  <si>
+    <t>XZK4Q8PX</t>
+  </si>
+  <si>
+    <t>Beam, Michael A.; Hmielowski, Jay D.; Hutchens, Myiah J.</t>
+  </si>
+  <si>
+    <t>Democratic Digital Inequalities: Threat and Opportunity in Online Citizenship From Motivation and Ability</t>
+  </si>
+  <si>
+    <t>10.1177/0002764218764253</t>
+  </si>
+  <si>
+    <t>Internet access provides a number of ways to read, share, and discuss politics. However, the political benefits from technology are most likely afforded to those with greater Internet skill, political interest, and education. This study used nationally representative cross-sectional survey data collected during the 2016 U.S. general election to investigate two online news behaviors. Guided by research on digital inequalities, the opportunities-motivation-ability framework, and communication gaps, we found that Internet skill and political interest, but not education, are related to greater online news reading and sharing. We also found conditional relationships between Internet skill and online news behaviors that were moderated by political interest and education. Skill-based digital inequalities in online news behaviors are exacerbated for those with greater political interest, but the gap is reduced for those with less education. We discuss the threat and opportunity that a digital skill communication gap poses for online citizen engagement.</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>news reading and sharing</t>
+  </si>
+  <si>
+    <t>political expression, social engagement</t>
+  </si>
+  <si>
+    <t>YN6QIA7L</t>
+  </si>
+  <si>
+    <t>Casero-Ripollés, A.; Micó-Sanz, J.-L.; Díez-Bosch, M.</t>
+  </si>
+  <si>
+    <t>Digital public sphere and geography: The influence of physical location on twitter’s political conversation</t>
+  </si>
+  <si>
+    <t>10.17645/mac.v8i4.3145</t>
+  </si>
+  <si>
+    <t>Social media has instituted new parameters for the political conversation in the digital public sphere. Previous research had identified several of these new phenomena: Political polarisation, hate speech discourses, and fake news, among others. However, little attention has been paid to the users’ geographical location, specifically to the role location plays in political discussion on social media, and to its further implications in the digital public sphere. A priori, we might think that on the digital landscape geographical restrictions no longer condition political debate, allowing increasingly diverse users to participate in, and influence, the discussion. To analyse this, machine learning techniques were used to study Twitter’s political conversation about the negotiation process for the formation of the government in Spain that took place between 2015 and 2016. A big data sample of 127,3 million tweets associated with three Spanish cities (Madrid, Barcelona, and Valencia) was used. The results show that the geographical location of the users directly affects the political conversation on Twitter, despite the dissolution of the physical restrictions that the online environment favours. Demographics, cultural factors, and proximity to the centres of political power are factors conditioning the structure of digital political debate. These findings are a novel contribution to the design of more effective political campaigns and strategies, and provide a better understanding of the dynamics of the digital public sphere provided by Twitter. © 2020 by the authors; licensee Cogitatio (Lisbon, Portugal).</t>
+  </si>
+  <si>
+    <t>survey,cross section large survey (self-report only)</t>
+  </si>
+  <si>
+    <t>D33FAU3Y</t>
+  </si>
+  <si>
+    <t>Bäck, E.A.; Bäck, H.; Fredén, A.; Gustafsson, N.</t>
+  </si>
+  <si>
+    <t>A social safety net? Rejection sensitivity and political opinion sharing among young people in social media</t>
+  </si>
+  <si>
+    <t>10.1177/1461444818795487</t>
+  </si>
+  <si>
+    <t>One reason why people avoid using social media to express their opinions is to avert social sanctions as proposed by the spiral of silence theory. We here elaborate on individual-level sensitivity to social rejection in relation to voicing political opinions on social media sites. Given the uncertainty about sharing political views in social media, and the fact that social acceptance, or rejection, can be easily communicated through, for instance, likes, or a lack of likes, we argue that rejection sensitive individuals are less likely to share political information in social media. Combining an analysis of unique survey data on psychological characteristics and online political activity with focus group interviews with Swedish youth supports our argument, showing that rejection sensitive individuals are less inclined to engage politically in social media. The results extend on previous research by establishing the role of rejection sensitivity in political engagement in social media. © The Author(s) 2018.</t>
+  </si>
+  <si>
+    <t>online behavioural data, secondary data,twitter, secondary data</t>
+  </si>
+  <si>
+    <t>self censorship, political expression</t>
+  </si>
+  <si>
+    <t>4G87QZ57</t>
+  </si>
+  <si>
+    <t>Mousavi, R.; Gu, B.</t>
+  </si>
+  <si>
+    <t>The impact of twitter adoption on lawmakers' voting orientations</t>
+  </si>
+  <si>
+    <t>10.1287/isre.2018.0791</t>
+  </si>
+  <si>
+    <t>Social media has been found to be influential in a variety of contexts. From mobilizing the crowd in social movements to helping refugees settle into a new country, social media has had a significant impact. This study examines the role of social media in Congressional representation in a democratic political system. We intend to assess the impact of U.S. Representatives' Twitter adoption on their voting orientations in the U.S. Congress. In particular, we consider whether the adoption of Twitter by representatives makes them vote more in line with the political ideology of their constituents. Weconstructed a panel data for 445 members of the 111th U.S. House of Representatives across a period of 24 months. We exploited the variation in joining Twitter across representatives to identify the impact of joining and using Twitter on voting orientations. Using fixed effects and difference-in-differences approaches, along with propensity score matching to address potential endogeneity in representatives' Twitter adoption decisions, we found that representatives' adoption of Twitter causes them to vote more in line with their constituents. Furthermore, the effect of Twitter adoption is more salient when a representative's party differs from the party affiliation of the constituent or when Twitter use per capita is higher in the representative's state. To identify the underlying mechanism of influence, we conducted further analysis on one of the important issues in the 111th Congress. Our results indicate that the volume of tweets directed at representatives signals the importance of certain bills to constituents. When representatives vote on bills that are the focus of a large volume of constituents' tweets, they vote in a manner more aligned with their constituents' opinions. Interestingly, the opinions the tweets express do not significantly influence their votes, suggesting that representatives are aware of the potential bias in opinions cascaded in tweets. © 2019, INFORMS.</t>
+  </si>
+  <si>
+    <t>twitter + panel data (FE, DiD)</t>
+  </si>
+  <si>
+    <t>political orientation of Congressional representatives, political strategies</t>
+  </si>
+  <si>
+    <t>NVD8HYYK</t>
+  </si>
+  <si>
+    <t>Barnidge, Matthew; Huber, Brigitte; de Zuniga, Homero Gil; Liu, James H.</t>
+  </si>
+  <si>
+    <t>Social Media as a Sphere for "Risky" Political Expression: A Twenty-Country Multilevel Comparative Analysis</t>
+  </si>
+  <si>
+    <t>10.1177/1940161218773838</t>
+  </si>
+  <si>
+    <t>In the context of the United States, research shows a positive relationship between network heterogeneity and political expression on social media at the individual level. This study builds on that research, relying on multilevel analysis that (1) leverages a twenty-country comparative survey and (2) includes country-level data on freedom of expression. Results show a positive relationship between network heterogeneity and political expression on social media across countries, but that relationship is stronger where freedom of expression is more limited.</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>survey + freedom of expression, mlm</t>
+  </si>
+  <si>
+    <t>freedom of expression,political expression</t>
+  </si>
+  <si>
+    <t>public discourse, civic engagement,civic engagement</t>
+  </si>
+  <si>
+    <t>TPG5ZYY3</t>
+  </si>
+  <si>
+    <t>Vraga, E.K.; Tully, M.</t>
+  </si>
+  <si>
+    <t>News literacy, social media behaviors, and skepticism toward information on social media</t>
+  </si>
+  <si>
+    <t>10.1080/1369118X.2019.1637445</t>
+  </si>
+  <si>
+    <t>Amid growing concerns about misinformation on social media, scholars, educators, and commentators see news literacy as a means to improve critical media consumption. We use a nationally-representative sample to investigate the relationship between news literacy (NL), seeing and posting news and political content on social media, and skepticism toward information shared on social media. This study finds NL and related orientations contribute to who is seeing and sharing information on social media, with those who are more knowledgeable about media structures seeing and sharing less content. Moreover, those who are more news literate and value NL are more skeptical of information quality on social media. Seeing and posting news and political content on social media are not associated with skepticism. This study suggests that NL plays an important role in shaping perceptions of information shared online. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>news sharing</t>
+  </si>
+  <si>
+    <t>AMB,MC</t>
+  </si>
+  <si>
+    <t>news sharing, political participation,political participation</t>
+  </si>
+  <si>
+    <t>political expression,political participation</t>
+  </si>
+  <si>
+    <t>political participation,participation, expression</t>
+  </si>
+  <si>
+    <t>QD3TD2GU</t>
+  </si>
+  <si>
+    <t>Quenette, A.M.; Velasquez, A.</t>
+  </si>
+  <si>
+    <t>Shifting Demographics: Understanding How Ethnically Diverse Networks Influence Latinos’ Political Uses of Social Media and Offline Political Engagement</t>
+  </si>
+  <si>
+    <t>Although prior work has demonstrated a link between online political engagement and offline participation, less is known about which mechanisms might influence online political opinion expression. This study examined specific constructs that might lead to increased social media engagement among Latinos—a demographic group with high social media adoption, but lower levels of political participation. Results from this study, using data from the 2016 presidential election, suggest that acculturation processes can explain the likelihood of online political engagement, willingness to share opinions, and offline political participation. Findings indicate that for Latinos, the ethnic heterogeneity of one’s social media network and perceptions of commonality between one’s own ethnic group and other ethnic and racial groups drive willingness to share opinions, online political engagement, and, indirectly, offline political participatory behaviors. Results are contextualized in relation to the ways Latinos uniquely integrate with U.S. political culture through online engagement. © 2018 (Andrea M. Quenette and Alcides Velasquez). Licensed under the Creative Commons Attribution Non-commercial No Derivatives (by-nc-nd). Available at http://ijoc.org.</t>
+  </si>
+  <si>
+    <t>political expression,self censorship, political expression</t>
+  </si>
+  <si>
+    <t>Lebanon, Saudia Arabia, Tunisia</t>
+  </si>
+  <si>
+    <t>fear of isolation</t>
+  </si>
+  <si>
+    <t>rejection sensitivity</t>
+  </si>
+  <si>
+    <t>news literacy</t>
+  </si>
+  <si>
+    <t>ethnical group</t>
+  </si>
+  <si>
+    <t>misinformation volume</t>
+  </si>
+  <si>
+    <t>misinformation</t>
+  </si>
+  <si>
+    <t>misinformation spread</t>
+  </si>
+  <si>
+    <t>3E7NSSDX</t>
+  </si>
+  <si>
+    <t>Cano-Oron, L; Calvo, D; Llorca-Abad, G; Mestre-Perez, R</t>
+  </si>
+  <si>
+    <t>Media crisis and disinformation: the participation of digital newspapers in the dissemination of a denialist hoax</t>
+  </si>
+  <si>
+    <t>10.3145/epi.2021.jul.12</t>
+  </si>
+  <si>
+    <t>Disinformation is a communicative phenomenon that frequently feeds on political or electoral topics, as well as other aspects of our reality. This research takes as a case study the coverage given by the Spanish digital media to a hoax broadcast during the Filomena storm in 2021 that insisted that the snow was plastic. The purpose of this work is to analyze the instrumentalization of fake information as an expression of the information media crisis in the current context of disinformation. We set out four specific objectives: (SO1) to study the spread of the hoax through the media, (SO2) to analyze the construction of headlines in the news pieces, (SO3) to investigate the treatment of the hoax in the content of the pieces, and (SO4) to analyze the sources used in the pieces. To reflect on this phenomenon, we propose a three-dimensional model (structural, economic, and pragmatic) aimed at clarifying the relationship between the logic of the spread of hoaxes on the Internet and the role played by traditional media in their diffusion. The methodology used combines workflow techniques of digital methods with quantitative and content analyses. The results reveal the appropriation of certain communication strategies by digital newspapers aimed at obtaining visits. We conclude that the Spanish media, by adapting to the dynamics of disinformation irresponsibly encouraged by the attention economy, subscribe to and reinforce the crisis of credibility faced by the media ecosystem.</t>
+  </si>
+  <si>
+    <t>misinformation sharing</t>
+  </si>
+  <si>
+    <t>DEUDGRRC</t>
+  </si>
+  <si>
+    <t>Bermes, A</t>
+  </si>
+  <si>
+    <t>Information overload and fake news sharing: A transactional stress perspective exploring the mitigating role of consumers' resilience during COVID-19</t>
+  </si>
+  <si>
+    <t>JOURNAL OF RETAILING AND CONSUMER SERVICES</t>
+  </si>
+  <si>
+    <t>10.1016/j.jretconser.2021.102555</t>
+  </si>
+  <si>
+    <t>The spread of fake news in social networks has become a major concern for various sectors of society, including retail and service providers, some of whom have suffered from decreasing sales due to misinformation consumers shared online. The current COVID-19 crisis has added to the surrounding hysteria, as fake news during crises can heighten negative behavioural responses in consumers, such as irrational panic buying or taking false medical precautionary measures. In fact, driven by the ubiquitous social media landscape, the dissemination of misinformation and the overarching overabundance of information have been major challenges of the pandemic. Given that current research offers little insight into the processes behind the sharing of fake news among consumers and that research on consumer-centred mitigating mechanisms is missing, this study explores the relationship between information overload, fake news sharing, and the overlooked concept of consumers' resilience as a potential shield as viewed through the lens of the current crisis. Structural equation modelling is applied to cross-sectional data from 241 social media users. Drawing from theories of transactional stress and psychological resilience, it is demonstrated that information overload leads to an increased likelihood of fake news sharing by increasing consumers' psychological strain. Furthermore, the study shows that consumers' resilience has the power to mitigate the drastic effects of this negative chain of influence by inhibiting each of the processual components. The results have important implications extending beyond crises. Measures should be taken to enhance consumers' resilience amidst technology-induced stressors while altering the information environment confronting consumers.</t>
+  </si>
+  <si>
+    <t>66LP6TV3</t>
+  </si>
+  <si>
+    <t>Sakya, SM; Van Scoy, LJ; Garman, JC; Miller, EL; Snyder, B; Wasserman, E; Chinchilli, VM; Lennon, RP</t>
+  </si>
+  <si>
+    <t>The impact of COVID-19-related changes in media consumption on public knowledge: results of a cross-sectional survey of Pennsylvania adults</t>
+  </si>
+  <si>
+    <t>CURRENT MEDICAL RESEARCH AND OPINION</t>
+  </si>
+  <si>
+    <t>10.1080/03007995.2021.1901679</t>
+  </si>
+  <si>
+    <t>Objective During the COVID-19 pandemic, Americans have increasingly relied on internet versus television news. The extent to which this change in health news consumption practice impacts health knowledge is not known. This study investigates the relationship between most trusted information source and COVID-19 knowledge. Methods A cross-sectional online survey was sent to a convenience sample from a list of adults on a central Pennsylvania health system's marketing database 25-31 March 2020. Respondents were grouped by their trusted news sources and comparison of respondent COVID-19 knowledge was made between these groups for 5948 respondents. Results Those who selected government health websites as their most trusted source were more likely to answer COVID-19 questions correctly than those who selected other internet news sources or television news (OR 1.21, p &lt; .05; 1.08, p &gt; .05; and 0.87, p &lt; .05, respectively). Those who used Facebook as an additional source of news in any way were less likely to answer COVID-19 questions correctly than those who did not (OR 0.93, p &lt; .05). Conclusions COVID-19 knowledge correlates with trusted news source. To increase public knowledge of COVID-19 in order to maximize information dissemination and compliance with COVID-19-related public health recommendations, those who provide health information should consider use of the public's most trusted sources of information, as well as monitoring and correcting misinformation presented by other sources. Independent content review for accuracy in media may be warranted in public health emergencies to improve knowledge.</t>
+  </si>
+  <si>
+    <t>44350</t>
+  </si>
+  <si>
+    <t>health misinformation</t>
+  </si>
+  <si>
+    <t>Q7QTMYPV</t>
+  </si>
+  <si>
+    <t>Zunino, E</t>
+  </si>
+  <si>
+    <t>Digital Media and COVID-19: overinformation, polarization and misinformation</t>
+  </si>
+  <si>
+    <t>UNIVERSITAS-REVISTA DE CIENCIAS SOCIALES Y HUMANAS</t>
+  </si>
+  <si>
+    <t>10.17163/uni.n34.2021.06</t>
+  </si>
+  <si>
+    <t>This investigation analyses the media treatment of COVID-19 in main Argentinian digital media. The SARS-CoV-2 pandemic has reconfigured the economic and social life, jointly with the centrality of the media system and the thematic composition of the media agendas. The demand of information during the outbreak enhanced the role of digital media as reliable sources. In specific terms, this work aims to investigate: 1) the evolution of the media agendas during the social isolation period; 2) the information sources deployment; and 3) the differential standing obtained by different actors in the media treatment. To this goal, a quantitative content analysis was developed of the most relevant news items in Infobae, Clarin, La Nacion and Pagina/12 between March 20 and October 18, 2020 (n=4,240). Results show the existence of similar thematic agendas and a homogeneous presence of state sources in media with different editorial positions. Furthermore, there is partisan and polarized coverage, which is evident in the differential standing attributed to the official and opposition state sources in the analyzed media. The media treatment of the pandemic, over an extensive period, followed a cycle of over-information, polarization and misinformation that was detrimental to public debate quality.</t>
+  </si>
+  <si>
+    <t>KFMANVJE</t>
+  </si>
+  <si>
+    <t>Ahmed, M; Riaz, MQ; Qamar, M; Asghar, R</t>
+  </si>
+  <si>
+    <t>Fake News Shared on WhatsApp During Covid-19: An Analysis of Groups and Statuses in Pakistan</t>
+  </si>
+  <si>
+    <t>MEDIA EDUCATION-MEDIAOBRAZOVANIE</t>
+  </si>
+  <si>
+    <t>10.13187/me.2021.1.4</t>
+  </si>
+  <si>
+    <t>With the advancement of technology, the flow of information has increased many folds. With this, the spread of fake news has also increased. This has many objectives on part of its originating source. The panic criterion is one of it, which aims to create unrest and a distorted image of a situation prevailing around the readers. To consider the problem, this study analyzed the WhatsApp user's response to fake news concerning (Covid-19) in Pakistan. This study considered a quantitative survey research method. A Purposive sampling technique has been used to select respondents from the four provinces of Pakistan i.e. Punjab, Baluchistan, Sindh and Khyber Pakhtunkhua. A total of 200 respondents were considered for the study, and only those respondents were included in the study who responded that they check the authenticity of news that is shared through the WhatsApp groups and statuses. The data has been analyzed through SPSS by extracting frequencies and percentages. The questionnaire was tested for reliability by applying a Chonbach's Alpha, the value came out to be .621 which is 62 %. Hence, the questionnaire is reliable in terms of measuring the main concept of the study.</t>
+  </si>
+  <si>
+    <t>G5AILMNS</t>
+  </si>
+  <si>
+    <t>Zhou, C.; Xiu, H.; Wang, Y.; Yu, X.</t>
+  </si>
+  <si>
+    <t>Characterizing the dissemination of misinformation on social media in health emergencies: An empirical study based on COVID-19</t>
+  </si>
+  <si>
+    <t>Information Processing and Management</t>
+  </si>
+  <si>
+    <t>10.1016/j.ipm.2021.102554</t>
+  </si>
+  <si>
+    <t>The dissemination of misinformation in health emergencies poses serious threats to public health and increases health anxiety. To understand the underlying mechanism of the dissemination of misinformation regarding health emergencies, this study creatively draws on social support theory and text mining. It also explores the roles of different types of misinformation, including health advice and caution misinformation and health help-seeking misinformation, and emotional support in affecting individuals’ misinformation dissemination behavior on social media and whether such relationships are contingent on misinformation ambiguity and richness. The theoretical model is tested using 12,101 textual data about COVID-19 collected from Sina Weibo, a leading social media platform in China. The empirical results show that health caution and advice, help seeking misinformation, and emotional support significantly increase the dissemination of misinformation. Furthermore, when the level of ambiguity and richness regarding misinformation is high, the effect of health caution and advice misinformation is strengthened, whereas the effect of health help-seeking misinformation and emotional support is weakened, indicating both dark and bright misinformation ambiguity and richness. This study contributes to the literature on misinformation dissemination behavior on social media during health emergencies and social support theory and provides implications for practice. © 2021 Elsevier Ltd</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>health misinformation, covid-19,Covid-19 misinformation</t>
+  </si>
+  <si>
+    <t>6L5EYADL</t>
+  </si>
+  <si>
+    <t>Germani, F.; Biller-Andorno, N.</t>
+  </si>
+  <si>
+    <t>The anti-vaccination infodemic on social media: A behavioral analysis</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0247642</t>
+  </si>
+  <si>
+    <t>Vaccinations are without doubt one of the greatest achievements of modern medicine, and there is hope that they can constitute a solution to halt the ongoing COVID-19 pandemic. However, the anti-vaccination movement is currently on the rise, spreading online misinformation about vaccine safety and causing a worrying reduction in vaccination rates worldwide. In this historical time, it is imperative to understand the reasons of vaccine hesitancy, and to find effective strategies to dismantle the rhetoric of anti-vaccination supporters. For this reason, we analyzed the behavior of anti-vaccination supporters on the platform Twitter. Here we identify that anti-vaccination supporters, in comparison with pro-vaccination supporters, share conspiracy theories and make use of emotional language. We demonstrate that anti-vaccination supporters are more engaged in discussions on Twitter and share their contents from a pull of strong influencers. We show that the movement's success relies on a strong sense of community, based on the contents produced by a small fraction of profiles, with the community at large serving as a sounding board for anti-vaccination discourse to circulate online. Our data demonstrate that Donald Trump, before his profile was suspended, was the main driver of vaccine misinformation on Twitter. Based on these results, we welcome policies that aim at halting the circulation of false information about vaccines by targeting the anti-vaccination community on Twitter. Based on our data, we also propose solutions to improve the communication strategy of health organizations and build a community of engaged influencers that support the dissemination of scientific insights, including issues related to vaccines and their safety. © 2021 Germani, Biller-Andorno. This is an open access article distributed under the terms of the Creative Commons Attribution License, which permits unrestricted use, distribution, and reproduction in any medium, provided the original author and source are credited.</t>
+  </si>
+  <si>
+    <t>44258</t>
+  </si>
+  <si>
+    <t>panel,panel</t>
+  </si>
+  <si>
+    <t>AC,AMC</t>
+  </si>
+  <si>
+    <t>AC,AC</t>
+  </si>
+  <si>
+    <t>UZTIBYA4</t>
+  </si>
+  <si>
+    <t>Allen, J.; Howland, B.; Mobius, M.; Rothschild, D.; Watts, D.J.</t>
+  </si>
+  <si>
+    <t>Evaluating the fake news problem at the scale of the information ecosystem</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.aay3539</t>
+  </si>
+  <si>
+    <t>“Fake news,” broadly defined as false or misleading information masquerading as legitimate news, is frequently asserted to be pervasive online with serious consequences for democracy. Using a unique multimode dataset that comprises a nationally representative sample of mobile, desktop, and television consumption, we refute this conventional wisdom on three levels. First, news consumption of any sort is heavily outweighed by other forms of media consumption, comprising at most 14.2% of Americans’ daily media diets. Second, to the extent that Americans do consume news, it is overwhelmingly from television, which accounts for roughly five times as much as news consumption as online. Third, fake news comprises only 0.15% of Americans’ daily media diet. Our results suggest that the origins of public misinformedness and polarization are more likely to lie in the content of ordinary news or the avoidance of news altogether as they are in overt fakery. Copyright © 2020 The Authors.</t>
+  </si>
+  <si>
+    <t>content analysis,content analysis</t>
+  </si>
+  <si>
+    <t>misinformation volume,fake news</t>
+  </si>
+  <si>
+    <t>AC,C</t>
+  </si>
+  <si>
+    <t>YMWJH7B9</t>
+  </si>
+  <si>
+    <t>Milani, E.; Weitkamp, E.; Webb, P.</t>
+  </si>
+  <si>
+    <t>The visual vaccine debate on twitter: A social network analysis</t>
+  </si>
+  <si>
+    <t>10.17645/mac.v8i2.2847</t>
+  </si>
+  <si>
+    <t>Pro-and anti-vaccination users use social media outlets, such as Twitter, to join conversations about vaccines, disseminate information or misinformation about immunization, and advocate in favour or against vaccinations. These users not only share textual content, but also images to emphasise their messages and influence their audiences. Though previous studies investigated the content of vaccine images, there is little research on how these visuals are distributed in digital environments. Therefore, this study explored how images related to vaccination are shared on Twitter to gain insight into the communities and networks formed around their dissemination. Moreover, this research also investigated who influences the distribution of vaccine images, and could be potential gatekeepers of vaccination information. We conducted a social network analysis on samples of tweets with images collected in June, September and October 2016. In each dataset, proand anti-vaccination users formed two polarised networks that hardly interacted with each other, and disseminated images among their members differently. The anti-vaccination users frequently retweeted each other, strengthening their relationships, making the information redundant within their community, and confirming their beliefs against immunisation. The pro-vaccine users, instead, formed a fragmented network, with loose but strategic connections that facilitated networking and the distribution of new vaccine information. Moreover, while the pro-vaccine gatekeepers were non-governmental organisations or health professionals, the anti-vaccine ones were activists and/or parents. Activists and parents could potentially be considered as alternative but trustworthy sources of information enabling them to disseminate misinformation about vaccinations. © 2020 by the authors;.</t>
+  </si>
+  <si>
+    <t>health misinformation, vaccine</t>
+  </si>
+  <si>
+    <t>vaccine misinformation, confirmation bias,vaccine hesistancy</t>
+  </si>
+  <si>
+    <t>KI55FP4Z</t>
+  </si>
+  <si>
+    <t>Zannettou, S.; Sirivianos, M.; Caulfield, T.; Stringhini, G.; De Cristofaro, E.; Blackburn, J.</t>
+  </si>
+  <si>
+    <t>Disinformation warfare: Understanding state-sponsored trolls on twitter and their influence on the web</t>
+  </si>
+  <si>
+    <t>10.1145/3308560.3316495</t>
+  </si>
+  <si>
+    <t>Over the past couple of years, anecdotal evidence has emerged linking coordinated campaigns by state-sponsored actors with efforts to manipulate public opinion on the Web, often around major political events, through dedicated accounts, or �trolls.� Although they are often involved in spreading disinformation on social media, there is little understanding of how these trolls operate, what type of content they disseminate, and most importantly their influence on the information ecosystem. In this paper, we shed light on these questions by analyzing 27K tweets posted by 1K Twitter users identified as having ties with Russia's Internet Research Agency and thus likely state-sponsored trolls. We compare their behavior to a random set of Twitter users, finding interesting differences in terms of the content they disseminate, the evolution of their account, as well as their general behavior and use of Twitter. Then, using Hawkes Processes, we quantify the influence that trolls had on the dissemination of news on social platforms like Twitter, Reddit, and 4chan. Overall, our findings indicate that Russian trolls managed to stay active for long periods of time and to reach a substantial number of Twitter users with their tweets. When looking at their ability of spreading news content and making it viral, however, we find that their effect on social platforms was minor, with the significant exception of news published by the Russian state-sponsored news outlet RT (Russia Today). � 2019 IW3C2 (International World Wide Web Conference Committee), published under Creative Commons CC-BY-NC-ND 4.0 License.</t>
+  </si>
+  <si>
+    <t>foreign influence strategies, russain trolls,russion troll activity</t>
+  </si>
+  <si>
+    <t>HDJQBBTI</t>
+  </si>
+  <si>
+    <t>Hjorth, F.; Adler-Nissen, R.</t>
+  </si>
+  <si>
+    <t>Ideological asymmetry in the reach of pro-Russian digital disinformation to United States audiences</t>
+  </si>
+  <si>
+    <t>10.1093/joc/jqz006</t>
+  </si>
+  <si>
+    <t>Despite concerns about the effects of pro-Russian disinformation on Western public opinion, evidence of its reach remains scarce. We hypothesize that conservative individuals will be more likely than liberals to be potentially exposed to pro-Russian disinformation in digital networks. We evaluate the hypothesis using a large data set of U.S.based Twitter users, testing how ideology is associated with disinformation about the 2014 crash of the MH17 aircraft over eastern Ukraine. We find that potential exposure to disinformation is concentrated among the most conservative individuals. Moving from the most liberal to the most conservative individuals in the sample is associated with a change in the conditional probability of potential exposure to disinformation from 6.5% to 45.2%. We corroborate the finding using a second, validated data set on individual party registration. The results indicate that the reach of online, pro-Russian disinformation into U.S. audiences is distinctly ideologically asymmetric. © The Author(s) (2019). Published by Oxford University Press on behalf of International Communication Association.</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>misinformation volume,misinformation</t>
+  </si>
+  <si>
+    <t>744QXGRG</t>
+  </si>
+  <si>
+    <t>Halpern, D.; Valenzuela, S.; Katz, J.; Miranda, J.P.</t>
+  </si>
+  <si>
+    <t>From Belief in Conspiracy Theories to Trust in Others: Which Factors Influence Exposure, Believing and Sharing Fake News</t>
+  </si>
+  <si>
+    <t>Drawing on social-psychological and political research, we offer a theoretical model that explains how people become exposed to fake news, come to believe in them and then share them with their contacts. Using two waves of a nationally representative sample of Chileans with internet access, we pinpoint the relevant causal factors. Analysis of the panel data indicate that three groups of variables largely explain these phenomena: (1) Personal and psychological factors such as belief in conspiracy theories, trust in others, education and gender; (2) Frequency and specific uses of social media; and (3) Political views and online activism. Importantly, personal and political-psychological factors are more relevant in explaining this behavior than specific uses of social media. © 2019, Springer Nature Switzerland AG.</t>
+  </si>
+  <si>
+    <t>11578 LNCS</t>
+  </si>
+  <si>
+    <t>misinformation engagement, sharing</t>
+  </si>
+  <si>
+    <t>AWAAMQTW</t>
+  </si>
+  <si>
+    <t>Nelson, J.L.; Taneja, H.</t>
+  </si>
+  <si>
+    <t>The small, disloyal fake news audience: The role of audience availability in fake news consumption</t>
+  </si>
+  <si>
+    <t>10.1177/1461444818758715</t>
+  </si>
+  <si>
+    <t>In light of the recent US election, many fear that “fake news” has become a force of enormous reach and influence within the news media environment. We draw on well-established theories of audience behavior to argue that the online fake news audience, like most niche content, would be a small subset of the total news audience, especially those with high availability. By examining online visitation data across mobile and desktop platforms in the months leading up to and following the 2016 presidential election, we indeed find the fake news audience comprises a small, disloyal group of heavy Internet users. We also find that social network sites play an outsized role in generating traffic to fake news. With this revised understanding, we revisit the democratic implications of the fake news crisis. © The Author(s) 2018.</t>
+  </si>
+  <si>
+    <t>misinformation volume,engagement with fake news</t>
+  </si>
+  <si>
+    <t>Q6Q3CN3N</t>
+  </si>
+  <si>
+    <t>Allcott, Hunt; Gentzkow, Matthew</t>
+  </si>
+  <si>
+    <t>Social Media and Fake News in the 2016 Election</t>
+  </si>
+  <si>
+    <t>Journal of Economic Perspectives</t>
+  </si>
+  <si>
+    <t>10.1257/jep.31.2.211</t>
+  </si>
+  <si>
+    <t>Following the 2016 US presidential election, many have expressed concern about the effects of false stories ("fake news"), circulated largely through social media. We discuss the economics of fake news and present new data on its consumption prior to the election. Drawing on web browsing data, archives of fact-checking websites, and results from a new online survey, we find: 1) social media was an important but not dominant source of election news, with 14 percent of Americans calling social media their "most important" source; 2) of the known false news stories that appeared in the three months before the election, those favoring Trump were shared a total of 30 million times on Facebook, while those favoring Clinton were shared 8 million times; 3) the average American adult saw on the order of one or perhaps several fake news stories in the months around the election, with just over half of those who recalled seeing them believing them; and 4) people are much more likely to believe stories that favor their preferred candidate, especially if they have ideologically segregated social media networks.</t>
+  </si>
+  <si>
+    <t>survey + web data</t>
+  </si>
+  <si>
+    <t>misinformation volume, exposure,misinformation</t>
+  </si>
+  <si>
+    <t>9D67I97T</t>
+  </si>
+  <si>
+    <t>Bae, S.Y.</t>
+  </si>
+  <si>
+    <t>The social mediation of political rumors: Examining the dynamics in social media and belief in political rumors</t>
+  </si>
+  <si>
+    <t>10.1177/1464884917722657</t>
+  </si>
+  <si>
+    <t>Using survey data of social media users in South Korea, this study investigates the dynamics of political rumors in online social networks. Findings of this study reveal the significant connection between the users’ reliance on social media as a source for news and their beliefs in political rumors. Taking a step further, this study underscores the need to understand how users process misinformation they receive through online social networks. Drawing attention to the role of network characteristics in the construction of beliefs around political rumors, this study provides a more nuanced understanding of the conditions under which rumors and misinformation can be regarded as more believable. © The Author(s) 2017.</t>
+  </si>
+  <si>
+    <t>belief in political misinformation</t>
+  </si>
+  <si>
+    <t>ZPNCDU2L</t>
+  </si>
+  <si>
+    <t>Riikonen, R.; Huhtinen, A.-M.; Norri-Sederholm, T.</t>
+  </si>
+  <si>
+    <t>Not a problem for me: Young men’s conceptions of their social media use and false information</t>
+  </si>
+  <si>
+    <t>10.34190/ESM.20.031</t>
+  </si>
+  <si>
+    <t>There is a lot of misinformation and disinformation in social media. The availability and affordability of new technologies have enabled actors to disseminate false information online relatively easily. As civilians are the main targets of information influencing, almost every social media user is at risk. For young people, the risk may be even higher, because they generally use social media as their primary information source. The problem with false information is that it is usually designed to mimic real information and appeal to the target audience’s pre-existing beliefs. The detection of false information is therefore challenging. Hence, this poses a threat to national security: false information may polarise the social debate, further divide groups with differing worldviews, and undermine citizen’s confidence in their government. This article focuses on the conceptions of young Finnish men aged between 17 and 18 of false information in social media. We aimed to examine how young men found their ability to distinguish between a reliable news story and a fake one in social media. In addition, we studied if their information evaluation behaviours and other people’s views were connected to a belief in their ability to distinguish reliable news stories from fake ones. The empirical data were collected using a survey during annual conscription call-ups, and the quantitative analysis was descriptive. The results indicated that the respondents were generally very confident in their ability to detect false information. Furthermore, those respondents who reported information evaluation behaviours were more confident than those who did not. However, the majority of respondents who did not report these behaviours still thought they could correctly identify reliable news stories. This is problematic in the case of false information and national security, because young people may be insufficiently aware of how hard it actually is to detect fake news. A lack of awareness may therefore make young people even more vulnerable to information influencing. © European Conference on Social Media, ECSM 2020.</t>
+  </si>
+  <si>
+    <t>EIUDL9ZT</t>
+  </si>
+  <si>
+    <t>Kim, D.H.; Jones-Jang, S.M.; Kenski, K.</t>
+  </si>
+  <si>
+    <t>Why Do People Share Political Information on Social Media?</t>
+  </si>
+  <si>
+    <t>10.1080/21670811.2020.1827966</t>
+  </si>
+  <si>
+    <t>This study investigates factors predicting political information sharing on social media in the election context. Specifically, the current study examines how users’ six motivations for political information sharing and exposure to political disagreement on social media predict their political information sharing behaviors. Analyses of national survey data collected before the 2018 U.S. midterm election suggest that criticism, informing, and socialization motivations, but not expression, awareness, and self-promotion motivations, positively predict political information sharing on social media. Individuals are more likely to share political information when they are exposed to information that is disagreeable. This relationship is stronger among individuals with higher epistemic political efficacy and lower political knowledge. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>sharing misinformation</t>
+  </si>
+  <si>
+    <t>political participation, misinformation,misinformation, participation</t>
+  </si>
+  <si>
+    <t>political knowledge,believe in political misinformation</t>
+  </si>
+  <si>
+    <t>Internet use</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>JSYSRWGF</t>
+  </si>
+  <si>
+    <t>Guess, A.; Nagler, J.; Tucker, J.</t>
+  </si>
+  <si>
+    <t>Less than you think: Prevalence and predictors of fake news dissemination on Facebook</t>
+  </si>
+  <si>
+    <t>Asian-Australasian Journal of Animal Sciences</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.aau4586</t>
+  </si>
+  <si>
+    <t>So-called "fake news" has renewed concerns about the prevalence and effects of misinformation in political campaigns. Given the potential for widespread dissemination of this material, we examine the individual-level characteristics associated with sharing false articles during the 2016 U.S. presidential campaign. To do so, we uniquely link an original survey with respondents' sharing activity as recorded in Facebook profile data. First and foremost, we find that sharing this content was a relatively rare activity. Conservatives were more likely to share articles from fake news domains, which in 2016 were largely pro-Trump in orientation, than liberals or moderates. We also find a strong age effect, which persists after controlling for partisanship and ideology: On average, users over 65 shared nearly seven times as many articles from fake news domains as the youngest age group. © 2019 American Association for the Advancement of Science. All rights reserved.</t>
+  </si>
+  <si>
+    <t>linked data, survey + facebook</t>
+  </si>
+  <si>
+    <t>sharing behaviour,fake news sharing</t>
+  </si>
+  <si>
+    <t>D5BJIG7E</t>
+  </si>
+  <si>
+    <t>Sommariva, S.; Vamos, C.; Mantzarlis, A.; Đào, L.U.-L.; Martinez Tyson, D.</t>
+  </si>
+  <si>
+    <t>Spreading the (Fake) News: Exploring Health Messages on Social Media and the Implications for Health Professionals Using a Case Study</t>
+  </si>
+  <si>
+    <t>American Journal of Health Education</t>
+  </si>
+  <si>
+    <t>10.1080/19325037.2018.1473178</t>
+  </si>
+  <si>
+    <t>Background: The importance of social networking sites (SNSs) as platforms to engage in the correction of “fake news” has been documented widely. More evidence is needed to understand the popularity of health-related rumors and how Health Educators can optimize their use of SNSs. Purpose: The purpose of this study was to explore the spread of health rumors and verified information on SNSs using the Zika virus as a case study. Methods: A content analysis of Zika-related news stories on SNSs between February 2016 and January 2017 was conducted to verify accuracy (phase 1). Phase 1 was followed by an analysis of volume of shares (phase 2) and a thematic analysis of headlines (phase 3). Results: Rumors had three times more shares than verified stories. Popular rumors portray Zika as a conspiracy against the public and a low-risk issue and connect it to the use of pesticides. Discussion: This study identifies the value of integrating in-depth analysis of popular health-related rumors into the development of communication strategies. Translation to Health Education Practice: Misinformation on SNSs can hinder disease prevention efforts. This study shows how information circulating on SNSs can be analyzed from a quantitative and qualitative standpoint to help Health Educators maximize the use of online communication platforms. ©, © 2018 SHAPE America.</t>
+  </si>
+  <si>
+    <t>content analyis, social media</t>
+  </si>
+  <si>
+    <t>misinformation volume, spread</t>
+  </si>
+  <si>
+    <t>4BJTMF8K</t>
+  </si>
+  <si>
+    <t>Bovet, A.; Makse, H.A.</t>
+  </si>
+  <si>
+    <t>Influence of fake news in Twitter during the 2016 US presidential election</t>
+  </si>
+  <si>
+    <t>Nature Communications</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-018-07761-2</t>
+  </si>
+  <si>
+    <t>The dynamics and influence of fake news on Twitter during the 2016 US presidential election remains to be clarified. Here, we use a dataset of 171 million tweets in the five months preceding the election day to identify 30 million tweets, from 2.2 million users, which contain a link to news outlets. Based on a classification of news outlets curated by www.opensources.co, we find that 25% of these tweets spread either fake or extremely biased news. We characterize the networks of information flow to find the most influential spreaders of fake and traditional news and use causal modeling to uncover how fake news influenced the presidential election. We find that, while top influencers spreading traditional center and left leaning news largely influence the activity of Clinton supporters, this causality is reversed for the fake news: the activity of Trump supporters influences the dynamics of the top fake news spreaders. © 2019, The Author(s).</t>
+  </si>
+  <si>
+    <t>misinformation volume, spread,misinformation, election</t>
+  </si>
+  <si>
+    <t>228TM8WD</t>
+  </si>
+  <si>
+    <t>Talwar, S.; Dhir, A.; Kaur, P.; Zafar, N.; Alrasheedy, M.</t>
+  </si>
+  <si>
+    <t>Why do people share fake news? Associations between the dark side of social media use and fake news sharing behavior</t>
+  </si>
+  <si>
+    <t>Journal of Retailing and Consumer Services</t>
+  </si>
+  <si>
+    <t>10.1016/j.jretconser.2019.05.026</t>
+  </si>
+  <si>
+    <t>The current study examines the associations of the dark side of social media use and fake news sharing behavior among social media users. A large cross-sectional data from 1022 social media users are collected to test the research model, formulated using social comparison theory, self-determination theory, rational choice theory and seminal work on psychology and communication. The study results suggest that online trust, self-disclosure, fear of missing out (FoMO), and social media fatigue are positively associated with the sharing fake news (intentionally). In contrast, social comparison has a negative association. The study findings also indicate that online trust has negative association with authenticating news before sharing. The study concludes with some implications for policy makers and marketers that could be useful in protecting society and brands from the perils of the misuse of social media and fake news. © 2019 Elsevier Ltd</t>
+  </si>
+  <si>
+    <t>MCB,MC</t>
+  </si>
+  <si>
+    <t>AW93PJNH</t>
+  </si>
+  <si>
+    <t>Jones, M.O.</t>
+  </si>
+  <si>
+    <t>Propaganda, fake news, and fake trends: The weaponization of Twitter bots in the Gulf crisis</t>
+  </si>
+  <si>
+    <t>To address the dual need to examine the weaponization of social media and the nature of non-Western propaganda, this article explores the use of Twitter bots in the Gulf crisis that began in 2017. Twitter account-creation dates within hashtag samples are used as a primary indicator for detecting Twitter bots. Following identification, the various modalities of their deployment in the crisis are analyzed. It is argued that bots were used during the crisis primarily to increase negative information and propaganda from the blockading countries toward Qatar. In terms of modalities, this study reveals how bots were used to manipulate Twitter trends, promote fake news, increase the ranking of anti-Qatar tweets from specific political figures, present the illusion of grassroots Qatari opposition to the Tamim regime, and pollute the information sphere around Qatar, thus amplifying propaganda discourses beyond regional and national news channels. © 2019 Marc Owen Jones.</t>
+  </si>
+  <si>
+    <t>bots, political strategies,bot influence</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>9KID5PGV</t>
+  </si>
+  <si>
+    <t>Stella, M.; Ferrara, E.; De Domenico, M.</t>
+  </si>
+  <si>
+    <t>Bots increase exposure to negative and inflammatory content in online social systems</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1803470115</t>
+  </si>
+  <si>
+    <t>Societies are complex systems, which tend to polarize into subgroups of individuals with dramatically opposite perspectives. This phenomenon is reflected—and often amplified—in online social networks, where, however, humans are no longer the only players and coexist alongside with social bots—that is, software-controlled accounts. Analyzing large-scale social data collected during the Catalan referendum for independence on October 1, 2017, consisting of nearly 4 millions Twitter posts generated by almost 1 million users, we identify the two polarized groups of Independentists and Constitutionalists and quantify the structural and emotional roles played by social bots. We show that bots act from peripheral areas of the social system to target influential humans of both groups, bombarding Independentists with violent contents, increasing their exposure to negative and inflammatory narratives, and exacerbating social conflict online. Our findings stress the importance of developing countermeasures to unmask these forms of automated social manipulation. © 2018 National Academy of Sciences. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>bots, discourse quality</t>
+  </si>
+  <si>
+    <t>9T7UCGV2</t>
+  </si>
+  <si>
+    <t>Guess, A.M.; Nyhan, B.; Reifler, J.</t>
+  </si>
+  <si>
+    <t>Exposure to untrustworthy websites in the 2016 US election</t>
+  </si>
+  <si>
+    <t>Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t>10.1038/s41562-020-0833-x</t>
+  </si>
+  <si>
+    <t>Although commentators frequently warn about echo chambers, little is known about the volume or slant of political misinformation that people consume online, the effects of social media and fact checking on exposure, or the effects of political misinformation on behaviour. Here, we evaluate these questions for websites that publish factually dubious content, which is often described as fake news. Survey and web-traffic data from the 2016 US presidential campaign show that supporters of Donald Trump were most likely to visit these websites, which often spread through Facebook. However, these websites made up a small share of people’s information diets on average and were largely consumed by a subset of Americans with strong preferences for pro-attitudinal information. These results suggest that the widespread speculation about the prevalence of exposure to untrustworthy websites has been overstated. © 2020, The Author(s), under exclusive licence to Springer Nature Limited.</t>
+  </si>
+  <si>
+    <t>polarization in news exposure</t>
+  </si>
+  <si>
+    <t>JEAUJYPR</t>
+  </si>
+  <si>
+    <t>Chen, Hsuan-Ting</t>
+  </si>
+  <si>
+    <t>Spiral of silence on social media and the moderating role of disagreement and publicness in the network: Analyzing expressive and withdrawal behaviors</t>
+  </si>
+  <si>
+    <t>10.1177/1461444818763384</t>
+  </si>
+  <si>
+    <t>Using two-wave panel data from Hong Kong, this study examines the spiral of silence process on social media. It extends the theoretical framework by including both supporting and disagreeing opinion expression and examining not only expressive but also withdrawal behaviors on social media. This study also investigates the moderating roles of disagreement and publicness as two affordances on social media that influence the spiral of silence process. Results from the moderated mediation model with a panel lagged and autoregressive analysis suggest that fear of social isolation (FSI) has an indirect effect on discouraging disagreeing opinion expression but not supporting opinion expression and on encouraging withdrawal behaviors through enhancing willingness to self-censor (WTSC) on social media. This indirect effect is contingent on the levels of disagreement and publicness in one's network. Higher levels of disagreement and publicness promote the spiral of silence. Implications of the findings are discussed.</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>opinion expression</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>LM6JVPJ6</t>
+  </si>
+  <si>
+    <t>Park, Inyounq; Lee, Daeho</t>
+  </si>
+  <si>
+    <t>Understanding news-sharing across different platforms: the effects of newsworthiness and gratifications from news-sharing</t>
+  </si>
+  <si>
+    <t>Information Research-an International Electronic Journal</t>
+  </si>
+  <si>
+    <t>10.47989/irpaper882</t>
+  </si>
+  <si>
+    <t>Introduction. As news consumption on social networking sites increases, dissemination of disinformation such as fake news-sharing is a new threat to the entire news ecosystem. In this paper, we examined whether sharing motives are different when sharing news from the social networking sites and from news aggregators. Method. We conducted an online experiment to investigate and compare the motivational aspects of information sharing on two different types of prominent news channels: Facebook and the Korean news aggregator, Naver. The motivational aspects of sharing were examined, namely newsworthiness and gratification from news sharing. Analysis. We analysed experimental survey data (N=303) from social media users in South Korea and conducted structural equation modeling. Results. We found that status seeking is the strongest motivation prompting news-sharing on Facebook, while information seeking is the strongest motivation prompting news sharing when consuming news on Naver. Conclusions. The results of this study reveal that news sharing differs across news distribution channels due to differences in motivation and inattention to news credibility.</t>
+  </si>
+  <si>
+    <t>2ZYTUB8H</t>
+  </si>
+  <si>
+    <t>Johannesson, Mikael Poul; Knudsen, Erik</t>
+  </si>
+  <si>
+    <t>Disentangling the Influence of Recommender Attributes and News-Story Attributes: A Conjoint Experiment on Exposure and Sharing Decisions on Social Networking Sites</t>
+  </si>
+  <si>
+    <t>10.1080/21670811.2020.1805780</t>
+  </si>
+  <si>
+    <t>While news outlets still play an important role as a source of news, people increasingly receive their political information and news from social networking sites (SNSs). This study extends the literature on exposure and sharing decisions on SNSs by exploring how different attributes shape such decisions, how the two decision types differ, and by disentangling the role played by personal news recommendations and shared news stories on SNSs. As SNSs add a social dimension, exposure and sharing decisions are contingent not only upon the news story itself (news-story attributes) but also upon characteristics of the person who shares the story (recommender attributes). We designed a conjoint experiment to disentangle the effects of recommender and news-story attributes on the decision to recommend and read news and fielded it in a probability-based Norwegian online survey. The results suggest that committing to reading and sharing information are two similar yet distinct phenomena and that selective sharing is a stronger commitment than selective exposure. We also found evidence to suggest that selective sharing of news featuring a favored political party was contingent upon whether one also received information about the recommender attributes.</t>
+  </si>
+  <si>
+    <t>conjoint experiment</t>
+  </si>
+  <si>
+    <t>T83Y4JLC</t>
+  </si>
+  <si>
+    <t>Van Duyn, E.; Peacock, C.; Stroud, N.J.</t>
+  </si>
+  <si>
+    <t>The Gender Gap in Online News Comment Sections</t>
+  </si>
+  <si>
+    <t>10.1177/0894439319864876</t>
+  </si>
+  <si>
+    <t>Women are less likely than men to discuss or engage in politics. This study extends research on the gender gap in politics to an online context by exploring whether women are less likely to engage in political discussion online, whether this follows socialization theories of a private versus public sphere distinction, and whether perceptions of incivility help to explain these gender differences. Through a survey of commenters and comment readers based on a probability sample in the United States (n = 965) and a survey of actual commenters and comment readers across 20 news sites (n = 12,110), we find that women are less likely than men to comment online, particularly on state, national, or international topics. However, women are more likely than men to comment on local news. We also find that perceptions of incivility are related to commenting, although they do little to explain gender differences in commenting. Our results suggest that the gender gap in online political discussion is the product of women’s political socialization more so than the civility of the site. © The Author(s) 2019.</t>
+  </si>
+  <si>
+    <t>political discussion</t>
+  </si>
+  <si>
+    <t>status seeking</t>
+  </si>
+  <si>
+    <t>Argentina</t>
   </si>
 </sst>
 </file>
@@ -7256,7 +8117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7267,6 +8128,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7605,15 +8472,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X373"/>
+  <dimension ref="A1:X426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D367" zoomScale="108" workbookViewId="0">
-      <selection activeCell="T373" sqref="T373"/>
+    <sheetView tabSelected="1" topLeftCell="K372" zoomScale="108" workbookViewId="0">
+      <selection activeCell="U374" sqref="U374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="24" width="89.6640625" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7683,8 +8553,11 @@
       <c r="W1" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7751,8 +8624,11 @@
       <c r="W2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -7822,8 +8698,11 @@
       <c r="W3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -7893,8 +8772,11 @@
       <c r="W4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7961,8 +8843,11 @@
       <c r="W5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -8029,8 +8914,11 @@
       <c r="W6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -8079,8 +8967,11 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -8141,8 +9032,11 @@
       <c r="W8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -8209,8 +9103,11 @@
       <c r="W9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -8277,8 +9174,11 @@
       <c r="W10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -8345,8 +9245,11 @@
       <c r="W11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -8410,8 +9313,11 @@
       <c r="V12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -8466,8 +9372,11 @@
       <c r="W13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -8534,8 +9443,11 @@
       <c r="W14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -8602,8 +9514,11 @@
       <c r="W15" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -8670,8 +9585,11 @@
       <c r="W16" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -8741,8 +9659,11 @@
       <c r="W17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -8803,8 +9724,11 @@
       <c r="W18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -8871,8 +9795,11 @@
       <c r="W19" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -8939,8 +9866,11 @@
       <c r="W20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>206</v>
       </c>
@@ -9007,8 +9937,11 @@
       <c r="W21" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>216</v>
       </c>
@@ -9075,8 +10008,11 @@
       <c r="W22" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>224</v>
       </c>
@@ -9131,8 +10067,11 @@
       <c r="U23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -9196,8 +10135,11 @@
       <c r="W24" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -9264,8 +10206,11 @@
       <c r="W25" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -9332,8 +10277,11 @@
       <c r="W26" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -9400,8 +10348,11 @@
       <c r="W27" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -9459,8 +10410,11 @@
       <c r="W28" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -9527,8 +10481,11 @@
       <c r="W29" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>262</v>
       </c>
@@ -9595,8 +10552,11 @@
       <c r="W30" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -9660,8 +10620,11 @@
       <c r="U31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>281</v>
       </c>
@@ -9725,8 +10688,11 @@
       <c r="W32" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>288</v>
       </c>
@@ -9787,8 +10753,11 @@
       <c r="W33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -9852,8 +10821,11 @@
       <c r="U34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>305</v>
       </c>
@@ -9920,8 +10892,11 @@
       <c r="W35" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>315</v>
       </c>
@@ -9985,8 +10960,11 @@
       <c r="W36" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>315</v>
       </c>
@@ -10050,8 +11028,11 @@
       <c r="W37" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>322</v>
       </c>
@@ -10121,8 +11102,11 @@
       <c r="W38" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>332</v>
       </c>
@@ -10189,8 +11173,11 @@
       <c r="W39" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>332</v>
       </c>
@@ -10257,8 +11244,11 @@
       <c r="W40" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -10325,8 +11315,11 @@
       <c r="W41" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>348</v>
       </c>
@@ -10384,8 +11377,11 @@
       <c r="W42" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>354</v>
       </c>
@@ -10455,8 +11451,11 @@
       <c r="W43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>362</v>
       </c>
@@ -10526,8 +11525,11 @@
       <c r="W44" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -10597,8 +11599,11 @@
       <c r="W45" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>382</v>
       </c>
@@ -10665,8 +11670,11 @@
       <c r="W46" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>392</v>
       </c>
@@ -10733,8 +11741,11 @@
       <c r="W47" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>399</v>
       </c>
@@ -10801,8 +11812,11 @@
       <c r="W48" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>405</v>
       </c>
@@ -10869,8 +11883,11 @@
       <c r="W49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>412</v>
       </c>
@@ -10940,8 +11957,11 @@
       <c r="W50" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>419</v>
       </c>
@@ -11008,8 +12028,11 @@
       <c r="W51" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>419</v>
       </c>
@@ -11073,8 +12096,11 @@
       <c r="W52" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>426</v>
       </c>
@@ -11135,8 +12161,11 @@
       <c r="T53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>432</v>
       </c>
@@ -11197,8 +12226,11 @@
       <c r="W54" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>441</v>
       </c>
@@ -11262,8 +12294,11 @@
       <c r="W55" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="288" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>447</v>
       </c>
@@ -11321,8 +12356,11 @@
       <c r="T56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>454</v>
       </c>
@@ -11389,8 +12427,11 @@
       <c r="W57" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>462</v>
       </c>
@@ -11445,8 +12486,11 @@
       <c r="T58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>467</v>
       </c>
@@ -11513,8 +12557,11 @@
       <c r="W59" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>477</v>
       </c>
@@ -11581,8 +12628,11 @@
       <c r="W60" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -11649,8 +12699,11 @@
       <c r="W61" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>492</v>
       </c>
@@ -11717,8 +12770,11 @@
       <c r="W62" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>500</v>
       </c>
@@ -11785,8 +12841,11 @@
       <c r="W63" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>507</v>
       </c>
@@ -11856,8 +12915,11 @@
       <c r="W64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>507</v>
       </c>
@@ -11927,8 +12989,11 @@
       <c r="W65" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>514</v>
       </c>
@@ -11989,8 +13054,11 @@
       <c r="T66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>522</v>
       </c>
@@ -12045,8 +13113,11 @@
       <c r="W67" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>530</v>
       </c>
@@ -12107,8 +13178,11 @@
       <c r="W68" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>530</v>
       </c>
@@ -12169,8 +13243,11 @@
       <c r="W69" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>537</v>
       </c>
@@ -12240,8 +13317,11 @@
       <c r="W70" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>545</v>
       </c>
@@ -12305,8 +13385,11 @@
       <c r="W71" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>555</v>
       </c>
@@ -12373,8 +13456,11 @@
       <c r="W72" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>564</v>
       </c>
@@ -12444,8 +13530,11 @@
       <c r="W73" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>564</v>
       </c>
@@ -12515,8 +13604,11 @@
       <c r="W74" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>572</v>
       </c>
@@ -12586,8 +13678,11 @@
       <c r="W75" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>582</v>
       </c>
@@ -12654,8 +13749,11 @@
       <c r="W76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>591</v>
       </c>
@@ -12725,8 +13823,11 @@
       <c r="W77" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>602</v>
       </c>
@@ -12793,8 +13894,11 @@
       <c r="W78" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X78" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>609</v>
       </c>
@@ -12855,8 +13959,11 @@
       <c r="U79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X79" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>616</v>
       </c>
@@ -12923,8 +14030,11 @@
       <c r="W80" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>624</v>
       </c>
@@ -12985,8 +14095,11 @@
       <c r="T81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>633</v>
       </c>
@@ -13053,8 +14166,11 @@
       <c r="W82" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>640</v>
       </c>
@@ -13118,8 +14234,11 @@
       <c r="W83" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>640</v>
       </c>
@@ -13183,8 +14302,11 @@
       <c r="W84" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>644</v>
       </c>
@@ -13251,8 +14373,11 @@
       <c r="W85" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>644</v>
       </c>
@@ -13319,8 +14444,11 @@
       <c r="W86" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>654</v>
       </c>
@@ -13387,8 +14515,11 @@
       <c r="W87" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="304" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>660</v>
       </c>
@@ -13455,8 +14586,11 @@
       <c r="W88" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>669</v>
       </c>
@@ -13526,8 +14660,11 @@
       <c r="W89" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>677</v>
       </c>
@@ -13594,8 +14731,11 @@
       <c r="W90" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>683</v>
       </c>
@@ -13662,8 +14802,11 @@
       <c r="W91" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>689</v>
       </c>
@@ -13733,8 +14876,11 @@
       <c r="W92" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>696</v>
       </c>
@@ -13801,8 +14947,11 @@
       <c r="W93" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>704</v>
       </c>
@@ -13869,8 +15018,11 @@
       <c r="W94" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>709</v>
       </c>
@@ -13934,8 +15086,11 @@
       <c r="W95" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>715</v>
       </c>
@@ -13999,8 +15154,11 @@
       <c r="W96" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>723</v>
       </c>
@@ -14064,8 +15222,11 @@
       <c r="W97" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>723</v>
       </c>
@@ -14129,8 +15290,11 @@
       <c r="W98" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>730</v>
       </c>
@@ -14197,8 +15361,11 @@
       <c r="W99" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>739</v>
       </c>
@@ -14265,8 +15432,11 @@
       <c r="W100" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>748</v>
       </c>
@@ -14333,8 +15503,11 @@
       <c r="W101" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>756</v>
       </c>
@@ -14401,8 +15574,11 @@
       <c r="W102" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X102" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>763</v>
       </c>
@@ -14457,8 +15633,11 @@
       <c r="W103" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X103" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>769</v>
       </c>
@@ -14525,8 +15704,11 @@
       <c r="W104" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X104" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>778</v>
       </c>
@@ -14593,8 +15775,11 @@
       <c r="W105" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X105" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>783</v>
       </c>
@@ -14652,8 +15837,11 @@
       <c r="W106" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X106" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>790</v>
       </c>
@@ -14723,8 +15911,11 @@
       <c r="W107" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X107" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>798</v>
       </c>
@@ -14791,8 +15982,11 @@
       <c r="W108" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X108" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>806</v>
       </c>
@@ -14859,8 +16053,11 @@
       <c r="W109" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X109" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>812</v>
       </c>
@@ -14927,8 +16124,11 @@
       <c r="W110" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X110" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>821</v>
       </c>
@@ -14989,8 +16189,11 @@
       <c r="W111" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X111" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>825</v>
       </c>
@@ -15054,8 +16257,11 @@
       <c r="W112" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X112" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>832</v>
       </c>
@@ -15122,8 +16328,11 @@
       <c r="W113" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X113" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>840</v>
       </c>
@@ -15190,8 +16399,11 @@
       <c r="W114" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X114" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>847</v>
       </c>
@@ -15258,8 +16470,11 @@
       <c r="W115" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X115" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>857</v>
       </c>
@@ -15326,8 +16541,11 @@
       <c r="W116" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X116" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>863</v>
       </c>
@@ -15388,8 +16606,11 @@
       <c r="T117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X117" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>871</v>
       </c>
@@ -15456,8 +16677,11 @@
       <c r="W118" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X118" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>879</v>
       </c>
@@ -15521,8 +16745,11 @@
       <c r="V119" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X119" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="96" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>888</v>
       </c>
@@ -15583,8 +16810,11 @@
       <c r="T120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X120" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>896</v>
       </c>
@@ -15648,8 +16878,11 @@
       <c r="V121" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X121" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>903</v>
       </c>
@@ -15710,8 +16943,11 @@
       <c r="T122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X122" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>910</v>
       </c>
@@ -15778,8 +17014,11 @@
       <c r="W123" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X123" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>917</v>
       </c>
@@ -15846,8 +17085,11 @@
       <c r="W124" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X124" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>924</v>
       </c>
@@ -15917,8 +17159,11 @@
       <c r="W125" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X125" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>932</v>
       </c>
@@ -15973,8 +17218,11 @@
       <c r="T126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X126" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>940</v>
       </c>
@@ -16041,8 +17289,11 @@
       <c r="W127" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X127" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>946</v>
       </c>
@@ -16109,8 +17360,11 @@
       <c r="W128" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X128" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>952</v>
       </c>
@@ -16177,8 +17431,11 @@
       <c r="W129" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X129" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>958</v>
       </c>
@@ -16242,8 +17499,11 @@
       <c r="W130" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X130" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>966</v>
       </c>
@@ -16313,8 +17573,11 @@
       <c r="W131" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X131" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>966</v>
       </c>
@@ -16381,8 +17644,11 @@
       <c r="W132" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X132" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>972</v>
       </c>
@@ -16449,8 +17715,11 @@
       <c r="W133" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X133" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" ht="80" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>979</v>
       </c>
@@ -16514,8 +17783,11 @@
       <c r="V134" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X134" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>984</v>
       </c>
@@ -16579,8 +17851,11 @@
       <c r="W135" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X135" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>990</v>
       </c>
@@ -16647,8 +17922,11 @@
       <c r="W136" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X136" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>990</v>
       </c>
@@ -16715,8 +17993,11 @@
       <c r="W137" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X137" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>996</v>
       </c>
@@ -16783,8 +18064,11 @@
       <c r="W138" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X138" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1003</v>
       </c>
@@ -16854,8 +18138,11 @@
       <c r="W139" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X139" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1003</v>
       </c>
@@ -16925,8 +18212,11 @@
       <c r="W140" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X140" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1003</v>
       </c>
@@ -16996,8 +18286,11 @@
       <c r="W141" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X141" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1012</v>
       </c>
@@ -17064,8 +18357,11 @@
       <c r="W142" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X142" s="4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1012</v>
       </c>
@@ -17132,8 +18428,11 @@
       <c r="W143" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X143" s="4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1019</v>
       </c>
@@ -17200,8 +18499,11 @@
       <c r="W144" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X144" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1019</v>
       </c>
@@ -17268,8 +18570,11 @@
       <c r="W145" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X145" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1026</v>
       </c>
@@ -17333,8 +18638,11 @@
       <c r="W146" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X146" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1031</v>
       </c>
@@ -17395,8 +18703,11 @@
       <c r="T147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X147" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1036</v>
       </c>
@@ -17457,8 +18768,11 @@
       <c r="T148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X148" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1044</v>
       </c>
@@ -17525,8 +18839,11 @@
       <c r="W149" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X149" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1044</v>
       </c>
@@ -17593,8 +18910,11 @@
       <c r="W150" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X150" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1051</v>
       </c>
@@ -17661,8 +18981,11 @@
       <c r="W151" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X151" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1058</v>
       </c>
@@ -17729,8 +19052,11 @@
       <c r="W152" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X152" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1058</v>
       </c>
@@ -17797,8 +19123,11 @@
       <c r="W153" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X153" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1067</v>
       </c>
@@ -17862,8 +19191,11 @@
       <c r="W154" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X154" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1071</v>
       </c>
@@ -17930,8 +19262,11 @@
       <c r="W155" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X155" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1078</v>
       </c>
@@ -17992,8 +19327,11 @@
       <c r="W156" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X156" s="4" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1085</v>
       </c>
@@ -18063,8 +19401,11 @@
       <c r="W157" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X157" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1092</v>
       </c>
@@ -18131,8 +19472,11 @@
       <c r="W158" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X158" s="4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1097</v>
       </c>
@@ -18199,8 +19543,11 @@
       <c r="W159" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X159" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1102</v>
       </c>
@@ -18267,8 +19614,11 @@
       <c r="W160" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X160" s="4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1108</v>
       </c>
@@ -18332,8 +19682,11 @@
       <c r="W161" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X161" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1114</v>
       </c>
@@ -18397,8 +19750,11 @@
       <c r="W162" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X162" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1121</v>
       </c>
@@ -18462,8 +19818,11 @@
       <c r="W163" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X163" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1128</v>
       </c>
@@ -18527,8 +19886,11 @@
       <c r="W164" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X164" s="4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1134</v>
       </c>
@@ -18595,8 +19957,11 @@
       <c r="W165" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X165" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1141</v>
       </c>
@@ -18651,8 +20016,11 @@
       <c r="T166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X166" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1145</v>
       </c>
@@ -18719,8 +20087,11 @@
       <c r="W167" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X167" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1152</v>
       </c>
@@ -18787,8 +20158,11 @@
       <c r="W168" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X168" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1158</v>
       </c>
@@ -18855,8 +20229,11 @@
       <c r="W169" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X169" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1163</v>
       </c>
@@ -18923,8 +20300,11 @@
       <c r="W170" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X170" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" ht="80" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1171</v>
       </c>
@@ -18985,8 +20365,11 @@
       <c r="T171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X171" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1179</v>
       </c>
@@ -19056,8 +20439,11 @@
       <c r="W172" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X172" s="4" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1185</v>
       </c>
@@ -19121,8 +20507,11 @@
       <c r="W173" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X173" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1191</v>
       </c>
@@ -19192,8 +20581,11 @@
       <c r="W174" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X174" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1191</v>
       </c>
@@ -19263,8 +20655,11 @@
       <c r="W175" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X175" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" ht="288" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1197</v>
       </c>
@@ -19322,8 +20717,11 @@
       <c r="W176" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X176" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1202</v>
       </c>
@@ -19390,8 +20788,11 @@
       <c r="W177" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X177" s="4" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1208</v>
       </c>
@@ -19452,8 +20853,11 @@
       <c r="W178" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X178" s="4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1215</v>
       </c>
@@ -19520,8 +20924,11 @@
       <c r="W179" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X179" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1223</v>
       </c>
@@ -19588,8 +20995,11 @@
       <c r="W180" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X180" s="4" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1230</v>
       </c>
@@ -19659,8 +21069,11 @@
       <c r="W181" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X181" s="4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1235</v>
       </c>
@@ -19727,8 +21140,11 @@
       <c r="W182" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X182" s="4" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1243</v>
       </c>
@@ -19795,8 +21211,11 @@
       <c r="W183" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X183" s="4" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1249</v>
       </c>
@@ -19866,8 +21285,11 @@
       <c r="W184" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X184" s="4" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1259</v>
       </c>
@@ -19934,8 +21356,11 @@
       <c r="W185" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X185" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1269</v>
       </c>
@@ -20002,8 +21427,11 @@
       <c r="W186" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X186" s="4" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1276</v>
       </c>
@@ -20070,8 +21498,11 @@
       <c r="W187" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X187" s="4" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1284</v>
       </c>
@@ -20138,8 +21569,11 @@
       <c r="W188" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X188" s="4" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1291</v>
       </c>
@@ -20206,8 +21640,11 @@
       <c r="W189" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X189" s="4" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1298</v>
       </c>
@@ -20271,8 +21708,11 @@
       <c r="V190" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X190" s="4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1305</v>
       </c>
@@ -20333,8 +21773,11 @@
       <c r="W191" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X191" s="4" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1305</v>
       </c>
@@ -20395,8 +21838,11 @@
       <c r="W192" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X192" s="4" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1310</v>
       </c>
@@ -20466,8 +21912,11 @@
       <c r="W193" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X193" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1310</v>
       </c>
@@ -20537,8 +21986,11 @@
       <c r="W194" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X194" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1317</v>
       </c>
@@ -20605,8 +22057,11 @@
       <c r="W195" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X195" s="4" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1324</v>
       </c>
@@ -20673,8 +22128,11 @@
       <c r="W196" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X196" s="4" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1329</v>
       </c>
@@ -20744,8 +22202,11 @@
       <c r="W197" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X197" s="4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" ht="96" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1336</v>
       </c>
@@ -20812,8 +22273,11 @@
       <c r="W198" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X198" s="4" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1341</v>
       </c>
@@ -20883,8 +22347,11 @@
       <c r="W199" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X199" s="4" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1347</v>
       </c>
@@ -20948,8 +22415,11 @@
       <c r="W200" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X200" s="4" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1353</v>
       </c>
@@ -21016,8 +22486,11 @@
       <c r="W201" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X201" s="4" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1359</v>
       </c>
@@ -21072,8 +22545,11 @@
       <c r="W202" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X202" s="4" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1365</v>
       </c>
@@ -21140,8 +22616,11 @@
       <c r="W203" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X203" s="4" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1371</v>
       </c>
@@ -21208,8 +22687,11 @@
       <c r="V204" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X204" s="4" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1378</v>
       </c>
@@ -21270,8 +22752,11 @@
       <c r="T205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X205" s="4" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1385</v>
       </c>
@@ -21338,8 +22823,11 @@
       <c r="W206" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X206" s="4" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1391</v>
       </c>
@@ -21400,8 +22888,11 @@
       <c r="T207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X207" s="4" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1398</v>
       </c>
@@ -21471,8 +22962,11 @@
       <c r="W208" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X208" s="4" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1403</v>
       </c>
@@ -21542,8 +23036,11 @@
       <c r="W209" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X209" s="4" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" ht="80" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1408</v>
       </c>
@@ -21613,8 +23110,11 @@
       <c r="W210" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X210" s="4" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1416</v>
       </c>
@@ -21675,8 +23175,11 @@
       <c r="W211" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X211" s="4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1422</v>
       </c>
@@ -21743,8 +23246,11 @@
       <c r="W212" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X212" s="4" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1422</v>
       </c>
@@ -21811,8 +23317,11 @@
       <c r="W213" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X213" s="4" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" ht="80" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1428</v>
       </c>
@@ -21882,8 +23391,11 @@
       <c r="W214" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X214" s="4" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1437</v>
       </c>
@@ -21950,8 +23462,11 @@
       <c r="W215" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X215" s="4" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1445</v>
       </c>
@@ -22021,8 +23536,11 @@
       <c r="W216" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X216" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1451</v>
       </c>
@@ -22080,8 +23598,11 @@
       <c r="T217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X217" s="4" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1458</v>
       </c>
@@ -22142,8 +23663,11 @@
       <c r="T218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X218" s="4" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1464</v>
       </c>
@@ -22210,8 +23734,11 @@
       <c r="W219" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X219" s="4" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1464</v>
       </c>
@@ -22278,8 +23805,11 @@
       <c r="W220" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X220" s="4" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1472</v>
       </c>
@@ -22343,8 +23873,11 @@
       <c r="W221" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X221" s="4" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1472</v>
       </c>
@@ -22408,8 +23941,11 @@
       <c r="W222" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X222" s="4" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1480</v>
       </c>
@@ -22476,8 +24012,11 @@
       <c r="W223" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X223" s="4" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1486</v>
       </c>
@@ -22544,8 +24083,11 @@
       <c r="W224" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X224" s="4" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1493</v>
       </c>
@@ -22615,8 +24157,11 @@
       <c r="W225" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X225" s="4" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1500</v>
       </c>
@@ -22686,8 +24231,11 @@
       <c r="W226" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X226" s="4" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1500</v>
       </c>
@@ -22757,8 +24305,11 @@
       <c r="W227" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X227" s="4" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1507</v>
       </c>
@@ -22828,8 +24379,11 @@
       <c r="W228" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X228" s="4" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1513</v>
       </c>
@@ -22896,8 +24450,11 @@
       <c r="W229" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X229" s="4" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1520</v>
       </c>
@@ -22961,8 +24518,11 @@
       <c r="U230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X230" s="4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1527</v>
       </c>
@@ -23026,8 +24586,11 @@
       <c r="V231" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X231" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1535</v>
       </c>
@@ -23094,8 +24657,11 @@
       <c r="W232" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X232" s="4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1542</v>
       </c>
@@ -23162,8 +24728,11 @@
       <c r="W233" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X233" s="4" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1550</v>
       </c>
@@ -23230,8 +24799,11 @@
       <c r="W234" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X234" s="4" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1556</v>
       </c>
@@ -23298,8 +24870,11 @@
       <c r="W235" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X235" s="4" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" ht="320" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1565</v>
       </c>
@@ -23360,8 +24935,11 @@
       <c r="T236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X236" s="4" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1570</v>
       </c>
@@ -23428,8 +25006,11 @@
       <c r="W237" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X237" s="4" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1576</v>
       </c>
@@ -23484,8 +25065,11 @@
       <c r="U238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X238" s="4" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1582</v>
       </c>
@@ -23549,8 +25133,11 @@
       <c r="V239" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X239" s="4" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1588</v>
       </c>
@@ -23614,8 +25201,11 @@
       <c r="V240" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X240" s="4" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" ht="288" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1597</v>
       </c>
@@ -23679,8 +25269,11 @@
       <c r="W241" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X241" s="4" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" ht="288" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1597</v>
       </c>
@@ -23744,8 +25337,11 @@
       <c r="W242" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X242" s="4" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1604</v>
       </c>
@@ -23809,8 +25405,11 @@
       <c r="W243" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X243" s="4" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1609</v>
       </c>
@@ -23877,8 +25476,11 @@
       <c r="W244" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X244" s="4" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1618</v>
       </c>
@@ -23939,8 +25541,11 @@
       <c r="W245" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X245" s="4" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1625</v>
       </c>
@@ -24007,8 +25612,11 @@
       <c r="W246" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X246" s="4" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1632</v>
       </c>
@@ -24075,8 +25683,11 @@
       <c r="W247" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X247" s="4" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1638</v>
       </c>
@@ -24140,8 +25751,11 @@
       <c r="W248" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X248" s="4" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1644</v>
       </c>
@@ -24211,8 +25825,11 @@
       <c r="W249" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X249" s="4" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1648</v>
       </c>
@@ -24273,8 +25890,11 @@
       <c r="W250" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X250" s="4" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1648</v>
       </c>
@@ -24332,8 +25952,11 @@
       <c r="W251" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X251" s="4" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" ht="96" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1654</v>
       </c>
@@ -24400,8 +26023,11 @@
       <c r="W252" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X252" s="4" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1659</v>
       </c>
@@ -24468,8 +26094,11 @@
       <c r="W253" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X253" s="4" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1664</v>
       </c>
@@ -24527,8 +26156,11 @@
       <c r="W254" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X254" s="4" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1670</v>
       </c>
@@ -24595,8 +26227,11 @@
       <c r="W255" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X255" s="4" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1677</v>
       </c>
@@ -24660,8 +26295,11 @@
       <c r="W256" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X256" s="4" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1684</v>
       </c>
@@ -24728,8 +26366,11 @@
       <c r="W257" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X257" s="4" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1692</v>
       </c>
@@ -24796,8 +26437,11 @@
       <c r="W258" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X258" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1698</v>
       </c>
@@ -24861,8 +26505,11 @@
       <c r="W259" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X259" s="4" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1706</v>
       </c>
@@ -24929,8 +26576,11 @@
       <c r="W260" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X260" s="4" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1713</v>
       </c>
@@ -24994,8 +26644,11 @@
       <c r="W261" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X261" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1720</v>
       </c>
@@ -25065,8 +26718,11 @@
       <c r="W262" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X262" s="4" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1725</v>
       </c>
@@ -25130,8 +26786,11 @@
       <c r="V263" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X263" s="4" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1732</v>
       </c>
@@ -25198,8 +26857,11 @@
       <c r="W264" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X264" s="4" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1739</v>
       </c>
@@ -25260,8 +26922,11 @@
       <c r="T265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X265" s="4" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1745</v>
       </c>
@@ -25328,8 +26993,11 @@
       <c r="W266" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X266" s="4" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1751</v>
       </c>
@@ -25390,8 +27058,11 @@
       <c r="W267" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X267" s="4" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1756</v>
       </c>
@@ -25455,8 +27126,11 @@
       <c r="W268" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X268" s="4" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1762</v>
       </c>
@@ -25526,8 +27200,11 @@
       <c r="W269" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X269" s="4" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1770</v>
       </c>
@@ -25588,8 +27265,11 @@
       <c r="W270" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X270" s="4" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1774</v>
       </c>
@@ -25647,8 +27327,11 @@
       <c r="V271" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X271" s="4" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1780</v>
       </c>
@@ -25715,8 +27398,11 @@
       <c r="W272" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X272" s="4" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1789</v>
       </c>
@@ -25786,8 +27472,11 @@
       <c r="W273" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X273" s="4" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1789</v>
       </c>
@@ -25857,8 +27546,11 @@
       <c r="W274" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X274" s="4" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1795</v>
       </c>
@@ -25919,8 +27611,11 @@
       <c r="W275" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X275" s="4" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1801</v>
       </c>
@@ -25990,8 +27685,11 @@
       <c r="W276" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X276" s="4" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1807</v>
       </c>
@@ -26052,8 +27750,11 @@
       <c r="T277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X277" s="4" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1813</v>
       </c>
@@ -26111,8 +27812,11 @@
       <c r="T278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X278" s="4" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1820</v>
       </c>
@@ -26176,8 +27880,11 @@
       <c r="W279" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X279" s="4" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1826</v>
       </c>
@@ -26238,8 +27945,11 @@
       <c r="T280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X280" s="4" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1832</v>
       </c>
@@ -26306,8 +28016,11 @@
       <c r="W281" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X281" s="4" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1839</v>
       </c>
@@ -26368,8 +28081,11 @@
       <c r="T282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X282" s="4" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1846</v>
       </c>
@@ -26427,8 +28143,11 @@
       <c r="T283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X283" s="4" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1852</v>
       </c>
@@ -26492,8 +28211,11 @@
       <c r="W284" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X284" s="4" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1857</v>
       </c>
@@ -26563,8 +28285,11 @@
       <c r="W285" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X285" s="4" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1864</v>
       </c>
@@ -26628,8 +28353,11 @@
       <c r="V286" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X286" s="4" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1871</v>
       </c>
@@ -26696,8 +28424,11 @@
       <c r="W287" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X287" s="4" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1871</v>
       </c>
@@ -26764,8 +28495,11 @@
       <c r="W288" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X288" s="4" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1878</v>
       </c>
@@ -26826,8 +28560,11 @@
       <c r="W289" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X289" s="4" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1883</v>
       </c>
@@ -26894,8 +28631,11 @@
       <c r="W290" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X290" s="4" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1890</v>
       </c>
@@ -26959,8 +28699,11 @@
       <c r="W291" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X291" s="4" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1895</v>
       </c>
@@ -27024,8 +28767,11 @@
       <c r="W292" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X292" s="4" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1900</v>
       </c>
@@ -27080,8 +28826,11 @@
       <c r="W293" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X293" s="4" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1905</v>
       </c>
@@ -27151,8 +28900,11 @@
       <c r="W294" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X294" s="4" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1910</v>
       </c>
@@ -27219,8 +28971,11 @@
       <c r="W295" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X295" s="4" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" ht="96" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1917</v>
       </c>
@@ -27287,8 +29042,11 @@
       <c r="W296" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X296" s="4" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1922</v>
       </c>
@@ -27352,8 +29110,11 @@
       <c r="W297" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X297" s="4" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1929</v>
       </c>
@@ -27423,8 +29184,11 @@
       <c r="W298" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X298" s="4" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1934</v>
       </c>
@@ -27488,8 +29252,11 @@
       <c r="W299" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X299" s="4" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1942</v>
       </c>
@@ -27559,8 +29326,11 @@
       <c r="W300" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X300" s="4" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" ht="304" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1949</v>
       </c>
@@ -27624,8 +29394,11 @@
       <c r="U301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X301" s="4" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1955</v>
       </c>
@@ -27692,8 +29465,11 @@
       <c r="W302" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X302" s="4" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1960</v>
       </c>
@@ -27760,8 +29536,11 @@
       <c r="W303" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X303" s="4" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>23</v>
       </c>
@@ -27811,7 +29590,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1970</v>
       </c>
@@ -27872,8 +29651,11 @@
       <c r="U305">
         <v>-1</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X305" s="4" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1978</v>
       </c>
@@ -27937,8 +29719,11 @@
       <c r="W306" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X306" s="4" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1986</v>
       </c>
@@ -27996,8 +29781,11 @@
       <c r="W307" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X307" s="4" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1993</v>
       </c>
@@ -28064,8 +29852,11 @@
       <c r="W308" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X308" s="4" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2001</v>
       </c>
@@ -28120,8 +29911,11 @@
       <c r="W309" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X309" s="4" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" ht="288" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2007</v>
       </c>
@@ -28188,8 +29982,11 @@
       <c r="W310" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X310" s="4" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2015</v>
       </c>
@@ -28256,8 +30053,11 @@
       <c r="W311" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X311" s="4" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>2023</v>
       </c>
@@ -28321,8 +30121,11 @@
       <c r="W312" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X312" s="4" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>2030</v>
       </c>
@@ -28383,8 +30186,11 @@
       <c r="T313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X313" s="4" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2037</v>
       </c>
@@ -28451,8 +30257,11 @@
       <c r="W314" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X314" s="4" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>2043</v>
       </c>
@@ -28519,8 +30328,11 @@
       <c r="W315" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X315" s="4" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2050</v>
       </c>
@@ -28575,8 +30387,11 @@
       <c r="W316" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X316" s="4" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>2059</v>
       </c>
@@ -28631,8 +30446,11 @@
       <c r="W317" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X317" s="4" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>2065</v>
       </c>
@@ -28684,8 +30502,11 @@
       <c r="U318">
         <v>-1</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X318" s="4" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>2072</v>
       </c>
@@ -28749,8 +30570,11 @@
       <c r="W319" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X319" s="4" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>2078</v>
       </c>
@@ -28820,8 +30644,11 @@
       <c r="W320" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X320" s="4" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>2084</v>
       </c>
@@ -28888,8 +30715,11 @@
       <c r="W321" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X321" s="4" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>2091</v>
       </c>
@@ -28947,8 +30777,11 @@
       <c r="W322" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X322" s="4" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>2096</v>
       </c>
@@ -29009,8 +30842,11 @@
       <c r="W323" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X323" s="4" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>2101</v>
       </c>
@@ -29077,8 +30913,11 @@
       <c r="W324" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X324" s="4" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>2107</v>
       </c>
@@ -29136,8 +30975,11 @@
       <c r="W325" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X325" s="4" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>2113</v>
       </c>
@@ -29201,8 +31043,11 @@
       <c r="W326" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X326" s="4" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>2118</v>
       </c>
@@ -29254,8 +31099,11 @@
       <c r="W327" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X327" s="4" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>2125</v>
       </c>
@@ -29310,8 +31158,11 @@
       <c r="W328" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X328" s="4" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>2131</v>
       </c>
@@ -29369,8 +31220,11 @@
       <c r="W329" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X329" s="4" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>2136</v>
       </c>
@@ -29422,8 +31276,11 @@
       <c r="W330" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X330" s="4" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>2142</v>
       </c>
@@ -29490,8 +31347,11 @@
       <c r="W331" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X331" s="4" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="332" spans="1:24" ht="240" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2149</v>
       </c>
@@ -29558,8 +31418,11 @@
       <c r="W332" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X332" s="4" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" ht="96" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>2155</v>
       </c>
@@ -29626,8 +31489,11 @@
       <c r="W333" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X333" s="4" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" ht="224" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>2161</v>
       </c>
@@ -29688,8 +31554,11 @@
       <c r="W334" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X334" s="4" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>2168</v>
       </c>
@@ -29756,8 +31625,11 @@
       <c r="W335" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X335" s="4" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>2174</v>
       </c>
@@ -29812,8 +31684,11 @@
       <c r="W336" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X336" s="4" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>2179</v>
       </c>
@@ -29883,8 +31758,11 @@
       <c r="W337" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X337" s="4" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>2184</v>
       </c>
@@ -29951,8 +31829,11 @@
       <c r="W338" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X338" s="4" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>2190</v>
       </c>
@@ -30016,8 +31897,11 @@
       <c r="W339" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X339" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>2196</v>
       </c>
@@ -30078,8 +31962,11 @@
       <c r="W340" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X340" s="4" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>2204</v>
       </c>
@@ -30134,8 +32021,11 @@
       <c r="W341" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X341" s="4" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" ht="380" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2209</v>
       </c>
@@ -30190,8 +32080,11 @@
       <c r="W342" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X342" s="4" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" ht="380" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>2209</v>
       </c>
@@ -30246,8 +32139,11 @@
       <c r="W343" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X343" s="4" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>2214</v>
       </c>
@@ -30302,8 +32198,11 @@
       <c r="U344">
         <v>-1</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X344" s="4" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>2221</v>
       </c>
@@ -30358,8 +32257,11 @@
       <c r="W345" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X345" s="4" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>2228</v>
       </c>
@@ -30420,8 +32322,11 @@
       <c r="W346" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X346" s="4" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>2233</v>
       </c>
@@ -30485,8 +32390,11 @@
       <c r="U347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X347" s="4" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>2239</v>
       </c>
@@ -30538,8 +32446,11 @@
       <c r="W348" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X348" s="4" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>2245</v>
       </c>
@@ -30606,8 +32517,11 @@
       <c r="W349" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X349" s="4" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" ht="256" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>2251</v>
       </c>
@@ -30674,8 +32588,11 @@
       <c r="W350" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X350" s="4" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>2258</v>
       </c>
@@ -30736,8 +32653,11 @@
       <c r="W351" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X351" s="4" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>2262</v>
       </c>
@@ -30789,8 +32709,11 @@
       <c r="T352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X352" s="4" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2267</v>
       </c>
@@ -30848,8 +32771,11 @@
       <c r="U353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X353" s="4" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" ht="208" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>2274</v>
       </c>
@@ -30913,8 +32839,11 @@
       <c r="W354" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X354" s="4" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>2280</v>
       </c>
@@ -30969,8 +32898,11 @@
       <c r="W355" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X355" s="4" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" ht="350" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>2287</v>
       </c>
@@ -31028,8 +32960,11 @@
       <c r="W356" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X356" s="4" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>2292</v>
       </c>
@@ -31087,8 +33022,11 @@
       <c r="W357" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X357" s="4" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" ht="192" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>2297</v>
       </c>
@@ -31155,11 +33093,11 @@
       <c r="W358" t="s">
         <v>215</v>
       </c>
-      <c r="X358" t="s">
+      <c r="X358" s="4" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>2304</v>
       </c>
@@ -31226,11 +33164,11 @@
       <c r="W359" t="s">
         <v>131</v>
       </c>
-      <c r="X359" t="s">
+      <c r="X359" s="4" t="s">
         <v>2308</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>2310</v>
       </c>
@@ -31300,11 +33238,11 @@
       <c r="W360" t="s">
         <v>131</v>
       </c>
-      <c r="X360" t="s">
+      <c r="X360" s="4" t="s">
         <v>2314</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>2316</v>
       </c>
@@ -31371,11 +33309,11 @@
       <c r="W361" t="s">
         <v>107</v>
       </c>
-      <c r="X361" t="s">
+      <c r="X361" s="4" t="s">
         <v>2321</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>2322</v>
       </c>
@@ -31445,11 +33383,11 @@
       <c r="W362" t="s">
         <v>600</v>
       </c>
-      <c r="X362" t="s">
+      <c r="X362" s="4" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>2322</v>
       </c>
@@ -31519,11 +33457,11 @@
       <c r="W363" t="s">
         <v>600</v>
       </c>
-      <c r="X363" t="s">
+      <c r="X363" s="4" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>2328</v>
       </c>
@@ -31590,11 +33528,11 @@
       <c r="W364" t="s">
         <v>831</v>
       </c>
-      <c r="X364" t="s">
+      <c r="X364" s="4" t="s">
         <v>2332</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>2333</v>
       </c>
@@ -31664,11 +33602,11 @@
       <c r="W365" t="s">
         <v>131</v>
       </c>
-      <c r="X365" t="s">
+      <c r="X365" s="4" t="s">
         <v>2337</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" ht="176" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>2339</v>
       </c>
@@ -31735,7 +33673,7 @@
       <c r="W366" t="s">
         <v>581</v>
       </c>
-      <c r="X366" t="s">
+      <c r="X366" s="4" t="s">
         <v>2343</v>
       </c>
     </row>
@@ -31813,7 +33751,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" ht="144" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>2352</v>
       </c>
@@ -31883,11 +33821,11 @@
       <c r="W368" t="s">
         <v>2356</v>
       </c>
-      <c r="X368" t="s">
+      <c r="X368" s="4" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" ht="80" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>2357</v>
       </c>
@@ -31957,11 +33895,11 @@
       <c r="W369" t="s">
         <v>131</v>
       </c>
-      <c r="X369" t="s">
+      <c r="X369" s="4" t="s">
         <v>2361</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>2362</v>
       </c>
@@ -32031,11 +33969,11 @@
       <c r="W370" t="s">
         <v>131</v>
       </c>
-      <c r="X370" t="s">
+      <c r="X370" s="4" t="s">
         <v>2366</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" ht="160" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>2369</v>
       </c>
@@ -32102,11 +34040,11 @@
       <c r="W371" t="s">
         <v>131</v>
       </c>
-      <c r="X371" t="s">
+      <c r="X371" s="4" t="s">
         <v>2374</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" ht="128" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>2376</v>
       </c>
@@ -32173,11 +34111,11 @@
       <c r="W372" t="s">
         <v>131</v>
       </c>
-      <c r="X372" t="s">
+      <c r="X372" s="4" t="s">
         <v>2380</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" ht="112" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>2384</v>
       </c>
@@ -32244,8 +34182,3624 @@
       <c r="W373" t="s">
         <v>131</v>
       </c>
-      <c r="X373" s="5" t="s">
+      <c r="X373" s="7" t="s">
         <v>2388</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B374" t="s">
+        <v>23</v>
+      </c>
+      <c r="D374" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E374" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F374" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G374" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H374" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L374" t="s">
+        <v>48</v>
+      </c>
+      <c r="M374" t="s">
+        <v>48</v>
+      </c>
+      <c r="N374" t="s">
+        <v>2396</v>
+      </c>
+      <c r="O374" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P374" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q374">
+        <v>0</v>
+      </c>
+      <c r="R374" t="s">
+        <v>32</v>
+      </c>
+      <c r="S374" t="s">
+        <v>32</v>
+      </c>
+      <c r="T374">
+        <v>0</v>
+      </c>
+      <c r="W374" t="s">
+        <v>2473</v>
+      </c>
+      <c r="X374" s="4" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B375" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375">
+        <v>2020</v>
+      </c>
+      <c r="D375" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E375" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F375" t="s">
+        <v>103</v>
+      </c>
+      <c r="H375" t="s">
+        <v>2401</v>
+      </c>
+      <c r="I375" t="s">
+        <v>45</v>
+      </c>
+      <c r="K375" t="s">
+        <v>466</v>
+      </c>
+      <c r="L375" t="s">
+        <v>149</v>
+      </c>
+      <c r="M375" t="s">
+        <v>153</v>
+      </c>
+      <c r="N375" t="s">
+        <v>2402</v>
+      </c>
+      <c r="O375" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P375" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q375">
+        <v>0</v>
+      </c>
+      <c r="R375" t="s">
+        <v>32</v>
+      </c>
+      <c r="S375" t="s">
+        <v>32</v>
+      </c>
+      <c r="T375">
+        <v>0</v>
+      </c>
+      <c r="W375" t="s">
+        <v>191</v>
+      </c>
+      <c r="X375" s="4" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" ht="192" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B376" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376">
+        <v>2020</v>
+      </c>
+      <c r="D376" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E376" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G376" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H376" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I376" t="s">
+        <v>45</v>
+      </c>
+      <c r="J376" t="s">
+        <v>30</v>
+      </c>
+      <c r="K376" t="s">
+        <v>178</v>
+      </c>
+      <c r="L376" t="s">
+        <v>149</v>
+      </c>
+      <c r="M376" t="s">
+        <v>153</v>
+      </c>
+      <c r="N376" t="s">
+        <v>2408</v>
+      </c>
+      <c r="O376" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P376" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q376">
+        <v>0</v>
+      </c>
+      <c r="R376" t="s">
+        <v>32</v>
+      </c>
+      <c r="S376" t="s">
+        <v>32</v>
+      </c>
+      <c r="T376">
+        <v>0</v>
+      </c>
+      <c r="X376" s="4" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="377" spans="1:24" ht="128" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B377" t="s">
+        <v>23</v>
+      </c>
+      <c r="C377">
+        <v>2019</v>
+      </c>
+      <c r="D377" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E377" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F377" t="s">
+        <v>136</v>
+      </c>
+      <c r="G377" t="s">
+        <v>2412</v>
+      </c>
+      <c r="H377" t="s">
+        <v>2413</v>
+      </c>
+      <c r="I377" t="s">
+        <v>2414</v>
+      </c>
+      <c r="J377" t="s">
+        <v>84</v>
+      </c>
+      <c r="K377" t="s">
+        <v>140</v>
+      </c>
+      <c r="L377" t="s">
+        <v>48</v>
+      </c>
+      <c r="M377" t="s">
+        <v>48</v>
+      </c>
+      <c r="N377" t="s">
+        <v>2415</v>
+      </c>
+      <c r="O377" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P377" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q377">
+        <v>1</v>
+      </c>
+      <c r="R377" t="s">
+        <v>32</v>
+      </c>
+      <c r="S377" t="s">
+        <v>32</v>
+      </c>
+      <c r="T377">
+        <v>0</v>
+      </c>
+      <c r="U377">
+        <v>-1</v>
+      </c>
+      <c r="V377" t="s">
+        <v>2474</v>
+      </c>
+      <c r="W377" t="s">
+        <v>131</v>
+      </c>
+      <c r="X377" s="4" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B378" t="s">
+        <v>23</v>
+      </c>
+      <c r="C378">
+        <v>2019</v>
+      </c>
+      <c r="D378" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E378" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F378" t="s">
+        <v>103</v>
+      </c>
+      <c r="H378" t="s">
+        <v>2419</v>
+      </c>
+      <c r="I378" t="s">
+        <v>29</v>
+      </c>
+      <c r="K378" t="s">
+        <v>319</v>
+      </c>
+      <c r="L378" t="s">
+        <v>48</v>
+      </c>
+      <c r="M378" t="s">
+        <v>48</v>
+      </c>
+      <c r="N378" t="s">
+        <v>2420</v>
+      </c>
+      <c r="O378" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P378" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q378">
+        <v>0</v>
+      </c>
+      <c r="R378" t="s">
+        <v>99</v>
+      </c>
+      <c r="S378" t="s">
+        <v>99</v>
+      </c>
+      <c r="T378">
+        <v>0</v>
+      </c>
+      <c r="U378">
+        <v>-1</v>
+      </c>
+      <c r="W378" t="s">
+        <v>131</v>
+      </c>
+      <c r="X378" s="4" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B379" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379">
+        <v>2018</v>
+      </c>
+      <c r="D379" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E379" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F379" t="s">
+        <v>594</v>
+      </c>
+      <c r="G379" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H379" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I379" t="s">
+        <v>2426</v>
+      </c>
+      <c r="J379" t="s">
+        <v>520</v>
+      </c>
+      <c r="K379" t="s">
+        <v>75</v>
+      </c>
+      <c r="L379" t="s">
+        <v>48</v>
+      </c>
+      <c r="M379" t="s">
+        <v>48</v>
+      </c>
+      <c r="N379" t="s">
+        <v>2427</v>
+      </c>
+      <c r="O379" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P379" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q379">
+        <v>1</v>
+      </c>
+      <c r="R379" t="s">
+        <v>32</v>
+      </c>
+      <c r="S379" t="s">
+        <v>32</v>
+      </c>
+      <c r="T379">
+        <v>0</v>
+      </c>
+      <c r="V379" t="s">
+        <v>65</v>
+      </c>
+      <c r="X379" s="4" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="380" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>790</v>
+      </c>
+      <c r="B380" t="s">
+        <v>23</v>
+      </c>
+      <c r="C380">
+        <v>2020</v>
+      </c>
+      <c r="D380" t="s">
+        <v>791</v>
+      </c>
+      <c r="E380" t="s">
+        <v>792</v>
+      </c>
+      <c r="F380" t="s">
+        <v>343</v>
+      </c>
+      <c r="G380" t="s">
+        <v>793</v>
+      </c>
+      <c r="H380" t="s">
+        <v>794</v>
+      </c>
+      <c r="I380" t="s">
+        <v>45</v>
+      </c>
+      <c r="J380" t="s">
+        <v>30</v>
+      </c>
+      <c r="K380" t="s">
+        <v>795</v>
+      </c>
+      <c r="L380" t="s">
+        <v>48</v>
+      </c>
+      <c r="M380" t="s">
+        <v>48</v>
+      </c>
+      <c r="N380" t="s">
+        <v>2428</v>
+      </c>
+      <c r="O380" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P380" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q380">
+        <v>1</v>
+      </c>
+      <c r="R380" t="s">
+        <v>32</v>
+      </c>
+      <c r="S380" t="s">
+        <v>32</v>
+      </c>
+      <c r="T380">
+        <v>0</v>
+      </c>
+      <c r="U380">
+        <v>1</v>
+      </c>
+      <c r="V380" t="s">
+        <v>120</v>
+      </c>
+      <c r="X380" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" ht="240" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B381" t="s">
+        <v>23</v>
+      </c>
+      <c r="C381">
+        <v>2020</v>
+      </c>
+      <c r="D381" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E381" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F381" t="s">
+        <v>487</v>
+      </c>
+      <c r="G381" t="s">
+        <v>2432</v>
+      </c>
+      <c r="H381" t="s">
+        <v>2433</v>
+      </c>
+      <c r="I381" t="s">
+        <v>45</v>
+      </c>
+      <c r="J381" t="s">
+        <v>58</v>
+      </c>
+      <c r="K381" t="s">
+        <v>520</v>
+      </c>
+      <c r="L381" t="s">
+        <v>2434</v>
+      </c>
+      <c r="M381" t="s">
+        <v>153</v>
+      </c>
+      <c r="N381" t="s">
+        <v>474</v>
+      </c>
+      <c r="O381" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P381" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q381">
+        <v>1</v>
+      </c>
+      <c r="R381" t="s">
+        <v>32</v>
+      </c>
+      <c r="S381" t="s">
+        <v>32</v>
+      </c>
+      <c r="T381">
+        <v>0</v>
+      </c>
+      <c r="V381" t="s">
+        <v>321</v>
+      </c>
+      <c r="W381" t="s">
+        <v>330</v>
+      </c>
+      <c r="X381" s="4" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B382" t="s">
+        <v>23</v>
+      </c>
+      <c r="C382">
+        <v>2019</v>
+      </c>
+      <c r="D382" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E382" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F382" t="s">
+        <v>533</v>
+      </c>
+      <c r="G382" t="s">
+        <v>2438</v>
+      </c>
+      <c r="H382" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I382" t="s">
+        <v>29</v>
+      </c>
+      <c r="J382" t="s">
+        <v>84</v>
+      </c>
+      <c r="K382" t="s">
+        <v>570</v>
+      </c>
+      <c r="L382" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M382" t="s">
+        <v>153</v>
+      </c>
+      <c r="N382" t="s">
+        <v>2441</v>
+      </c>
+      <c r="O382" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P382" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q382">
+        <v>1</v>
+      </c>
+      <c r="R382" t="s">
+        <v>32</v>
+      </c>
+      <c r="S382" t="s">
+        <v>32</v>
+      </c>
+      <c r="T382">
+        <v>0</v>
+      </c>
+      <c r="U382">
+        <v>-1</v>
+      </c>
+      <c r="V382" t="s">
+        <v>2475</v>
+      </c>
+      <c r="X382" s="4" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" ht="288" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B383" t="s">
+        <v>23</v>
+      </c>
+      <c r="C383">
+        <v>2019</v>
+      </c>
+      <c r="D383" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E383" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G383" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H383" t="s">
+        <v>2446</v>
+      </c>
+      <c r="I383" t="s">
+        <v>29</v>
+      </c>
+      <c r="J383" t="s">
+        <v>30</v>
+      </c>
+      <c r="K383" t="s">
+        <v>46</v>
+      </c>
+      <c r="L383" t="s">
+        <v>2447</v>
+      </c>
+      <c r="M383" t="s">
+        <v>370</v>
+      </c>
+      <c r="N383" t="s">
+        <v>2448</v>
+      </c>
+      <c r="O383" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P383" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383" t="s">
+        <v>32</v>
+      </c>
+      <c r="S383" t="s">
+        <v>32</v>
+      </c>
+      <c r="T383">
+        <v>1</v>
+      </c>
+      <c r="X383" s="4" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" ht="80" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B384" t="s">
+        <v>23</v>
+      </c>
+      <c r="C384">
+        <v>2018</v>
+      </c>
+      <c r="D384" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E384" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F384" t="s">
+        <v>375</v>
+      </c>
+      <c r="G384" t="s">
+        <v>2452</v>
+      </c>
+      <c r="H384" t="s">
+        <v>2453</v>
+      </c>
+      <c r="I384" t="s">
+        <v>2454</v>
+      </c>
+      <c r="J384" t="s">
+        <v>84</v>
+      </c>
+      <c r="K384" t="s">
+        <v>389</v>
+      </c>
+      <c r="L384" t="s">
+        <v>2455</v>
+      </c>
+      <c r="M384" t="s">
+        <v>129</v>
+      </c>
+      <c r="N384" t="s">
+        <v>2456</v>
+      </c>
+      <c r="O384" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P384" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q384">
+        <v>1</v>
+      </c>
+      <c r="R384" t="s">
+        <v>181</v>
+      </c>
+      <c r="S384" t="s">
+        <v>32</v>
+      </c>
+      <c r="T384">
+        <v>0</v>
+      </c>
+      <c r="U384">
+        <v>1</v>
+      </c>
+      <c r="V384" t="s">
+        <v>86</v>
+      </c>
+      <c r="X384" s="4" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B385" t="s">
+        <v>23</v>
+      </c>
+      <c r="C385">
+        <v>2017</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F385" t="s">
+        <v>415</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H385" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I385" t="s">
+        <v>588</v>
+      </c>
+      <c r="J385" t="s">
+        <v>74</v>
+      </c>
+      <c r="K385" t="s">
+        <v>328</v>
+      </c>
+      <c r="L385" t="s">
+        <v>48</v>
+      </c>
+      <c r="M385" t="s">
+        <v>48</v>
+      </c>
+      <c r="N385" t="s">
+        <v>2457</v>
+      </c>
+      <c r="O385" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P385" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q385">
+        <v>1</v>
+      </c>
+      <c r="R385" t="s">
+        <v>181</v>
+      </c>
+      <c r="S385" t="s">
+        <v>32</v>
+      </c>
+      <c r="T385">
+        <v>0</v>
+      </c>
+      <c r="U385">
+        <v>1</v>
+      </c>
+      <c r="V385" t="s">
+        <v>65</v>
+      </c>
+      <c r="W385" t="s">
+        <v>223</v>
+      </c>
+      <c r="X385" s="4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B386" t="s">
+        <v>23</v>
+      </c>
+      <c r="C386">
+        <v>2021</v>
+      </c>
+      <c r="D386" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E386" t="s">
+        <v>2460</v>
+      </c>
+      <c r="F386" t="s">
+        <v>949</v>
+      </c>
+      <c r="G386" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H386" t="s">
+        <v>2462</v>
+      </c>
+      <c r="I386" t="s">
+        <v>249</v>
+      </c>
+      <c r="J386" t="s">
+        <v>84</v>
+      </c>
+      <c r="K386" t="s">
+        <v>589</v>
+      </c>
+      <c r="L386" t="s">
+        <v>48</v>
+      </c>
+      <c r="M386" t="s">
+        <v>48</v>
+      </c>
+      <c r="N386" t="s">
+        <v>2463</v>
+      </c>
+      <c r="O386" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P386" t="s">
+        <v>2464</v>
+      </c>
+      <c r="Q386">
+        <v>1</v>
+      </c>
+      <c r="R386" t="s">
+        <v>736</v>
+      </c>
+      <c r="S386" t="s">
+        <v>99</v>
+      </c>
+      <c r="T386">
+        <v>0</v>
+      </c>
+      <c r="U386">
+        <v>-1</v>
+      </c>
+      <c r="V386" t="s">
+        <v>2476</v>
+      </c>
+      <c r="X386" s="4" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" ht="96" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B387" t="s">
+        <v>23</v>
+      </c>
+      <c r="C387">
+        <v>2020</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F387" t="s">
+        <v>533</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H387" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I387" t="s">
+        <v>45</v>
+      </c>
+      <c r="J387" t="s">
+        <v>115</v>
+      </c>
+      <c r="K387" t="s">
+        <v>31</v>
+      </c>
+      <c r="L387" t="s">
+        <v>189</v>
+      </c>
+      <c r="M387" t="s">
+        <v>190</v>
+      </c>
+      <c r="N387" t="s">
+        <v>2465</v>
+      </c>
+      <c r="O387" t="s">
+        <v>37</v>
+      </c>
+      <c r="P387" t="s">
+        <v>1602</v>
+      </c>
+      <c r="Q387">
+        <v>0</v>
+      </c>
+      <c r="R387" t="s">
+        <v>1602</v>
+      </c>
+      <c r="S387" t="s">
+        <v>99</v>
+      </c>
+      <c r="T387">
+        <v>0</v>
+      </c>
+      <c r="U387">
+        <v>1</v>
+      </c>
+      <c r="X387" s="4" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>910</v>
+      </c>
+      <c r="B388" t="s">
+        <v>23</v>
+      </c>
+      <c r="C388">
+        <v>2018</v>
+      </c>
+      <c r="D388" t="s">
+        <v>911</v>
+      </c>
+      <c r="E388" t="s">
+        <v>912</v>
+      </c>
+      <c r="F388" t="s">
+        <v>548</v>
+      </c>
+      <c r="G388" t="s">
+        <v>913</v>
+      </c>
+      <c r="H388" t="s">
+        <v>914</v>
+      </c>
+      <c r="I388" t="s">
+        <v>73</v>
+      </c>
+      <c r="K388" t="s">
+        <v>915</v>
+      </c>
+      <c r="L388" t="s">
+        <v>48</v>
+      </c>
+      <c r="M388" t="s">
+        <v>48</v>
+      </c>
+      <c r="N388" t="s">
+        <v>2466</v>
+      </c>
+      <c r="O388" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P388" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q388">
+        <v>1</v>
+      </c>
+      <c r="R388" t="s">
+        <v>181</v>
+      </c>
+      <c r="S388" t="s">
+        <v>32</v>
+      </c>
+      <c r="T388">
+        <v>0</v>
+      </c>
+      <c r="U388">
+        <v>1</v>
+      </c>
+      <c r="V388" t="s">
+        <v>2474</v>
+      </c>
+      <c r="W388" t="s">
+        <v>107</v>
+      </c>
+      <c r="X388" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" ht="208" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>348</v>
+      </c>
+      <c r="B389" t="s">
+        <v>145</v>
+      </c>
+      <c r="C389">
+        <v>2018</v>
+      </c>
+      <c r="D389" t="s">
+        <v>349</v>
+      </c>
+      <c r="E389" t="s">
+        <v>350</v>
+      </c>
+      <c r="G389" t="s">
+        <v>351</v>
+      </c>
+      <c r="H389" t="s">
+        <v>352</v>
+      </c>
+      <c r="I389" t="s">
+        <v>73</v>
+      </c>
+      <c r="L389" t="s">
+        <v>48</v>
+      </c>
+      <c r="M389" t="s">
+        <v>48</v>
+      </c>
+      <c r="N389" t="s">
+        <v>2467</v>
+      </c>
+      <c r="O389" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P389" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q389">
+        <v>0</v>
+      </c>
+      <c r="R389" t="s">
+        <v>32</v>
+      </c>
+      <c r="S389" t="s">
+        <v>32</v>
+      </c>
+      <c r="T389">
+        <v>0</v>
+      </c>
+      <c r="U389">
+        <v>1</v>
+      </c>
+      <c r="W389" t="s">
+        <v>353</v>
+      </c>
+      <c r="X389" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24" ht="192" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B390" t="s">
+        <v>23</v>
+      </c>
+      <c r="C390">
+        <v>2018</v>
+      </c>
+      <c r="D390" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E390" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F390" t="s">
+        <v>103</v>
+      </c>
+      <c r="H390" t="s">
+        <v>2471</v>
+      </c>
+      <c r="I390" t="s">
+        <v>73</v>
+      </c>
+      <c r="K390" t="s">
+        <v>105</v>
+      </c>
+      <c r="L390" t="s">
+        <v>48</v>
+      </c>
+      <c r="M390" t="s">
+        <v>48</v>
+      </c>
+      <c r="N390" t="s">
+        <v>2472</v>
+      </c>
+      <c r="O390" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P390" t="s">
+        <v>929</v>
+      </c>
+      <c r="Q390">
+        <v>1</v>
+      </c>
+      <c r="R390" t="s">
+        <v>676</v>
+      </c>
+      <c r="S390" t="s">
+        <v>32</v>
+      </c>
+      <c r="T390">
+        <v>0</v>
+      </c>
+      <c r="U390">
+        <v>1</v>
+      </c>
+      <c r="V390" t="s">
+        <v>2477</v>
+      </c>
+      <c r="X390" s="4" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" ht="224" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B391" t="s">
+        <v>23</v>
+      </c>
+      <c r="C391">
+        <v>2021</v>
+      </c>
+      <c r="D391" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E391" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F391" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G391" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H391" t="s">
+        <v>2485</v>
+      </c>
+      <c r="I391" t="s">
+        <v>2272</v>
+      </c>
+      <c r="J391" t="s">
+        <v>58</v>
+      </c>
+      <c r="K391" t="s">
+        <v>46</v>
+      </c>
+      <c r="L391" t="s">
+        <v>149</v>
+      </c>
+      <c r="M391" t="s">
+        <v>153</v>
+      </c>
+      <c r="N391" t="s">
+        <v>2478</v>
+      </c>
+      <c r="O391" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P391" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q391">
+        <v>0</v>
+      </c>
+      <c r="R391" t="s">
+        <v>93</v>
+      </c>
+      <c r="S391" t="s">
+        <v>93</v>
+      </c>
+      <c r="T391">
+        <v>0</v>
+      </c>
+      <c r="U391">
+        <v>1</v>
+      </c>
+      <c r="W391" t="s">
+        <v>330</v>
+      </c>
+      <c r="X391" s="4" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" ht="272" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B392" t="s">
+        <v>23</v>
+      </c>
+      <c r="C392">
+        <v>2021</v>
+      </c>
+      <c r="D392" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E392" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F392" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G392" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H392" t="s">
+        <v>2492</v>
+      </c>
+      <c r="I392" t="s">
+        <v>2272</v>
+      </c>
+      <c r="K392" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L392" t="s">
+        <v>48</v>
+      </c>
+      <c r="M392" t="s">
+        <v>48</v>
+      </c>
+      <c r="N392" t="s">
+        <v>2486</v>
+      </c>
+      <c r="O392" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P392" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q392">
+        <v>0</v>
+      </c>
+      <c r="R392" t="s">
+        <v>93</v>
+      </c>
+      <c r="S392" t="s">
+        <v>93</v>
+      </c>
+      <c r="T392">
+        <v>0</v>
+      </c>
+      <c r="X392" s="4" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" ht="240" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B393" t="s">
+        <v>23</v>
+      </c>
+      <c r="C393">
+        <v>2021</v>
+      </c>
+      <c r="D393" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E393" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F393" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G393" t="s">
+        <v>2497</v>
+      </c>
+      <c r="H393" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I393" t="s">
+        <v>2499</v>
+      </c>
+      <c r="J393" t="s">
+        <v>178</v>
+      </c>
+      <c r="K393" t="s">
+        <v>238</v>
+      </c>
+      <c r="L393" t="s">
+        <v>48</v>
+      </c>
+      <c r="M393" t="s">
+        <v>48</v>
+      </c>
+      <c r="N393" t="s">
+        <v>2500</v>
+      </c>
+      <c r="O393" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P393" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q393">
+        <v>0</v>
+      </c>
+      <c r="R393" t="s">
+        <v>93</v>
+      </c>
+      <c r="S393" t="s">
+        <v>93</v>
+      </c>
+      <c r="T393">
+        <v>0</v>
+      </c>
+      <c r="U393">
+        <v>1</v>
+      </c>
+      <c r="W393" t="s">
+        <v>131</v>
+      </c>
+      <c r="X393" s="4" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" ht="192" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B394" t="s">
+        <v>23</v>
+      </c>
+      <c r="C394">
+        <v>2021</v>
+      </c>
+      <c r="D394" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E394" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F394" t="s">
+        <v>2504</v>
+      </c>
+      <c r="G394" t="s">
+        <v>2505</v>
+      </c>
+      <c r="H394" t="s">
+        <v>2506</v>
+      </c>
+      <c r="I394" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J394" t="s">
+        <v>328</v>
+      </c>
+      <c r="L394" t="s">
+        <v>149</v>
+      </c>
+      <c r="M394" t="s">
+        <v>153</v>
+      </c>
+      <c r="N394" t="s">
+        <v>2480</v>
+      </c>
+      <c r="O394" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P394" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q394">
+        <v>0</v>
+      </c>
+      <c r="R394" t="s">
+        <v>32</v>
+      </c>
+      <c r="S394" t="s">
+        <v>32</v>
+      </c>
+      <c r="T394">
+        <v>0</v>
+      </c>
+      <c r="U394">
+        <v>1</v>
+      </c>
+      <c r="V394" t="s">
+        <v>371</v>
+      </c>
+      <c r="W394" t="s">
+        <v>2676</v>
+      </c>
+      <c r="X394" s="4" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" ht="176" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B395" t="s">
+        <v>23</v>
+      </c>
+      <c r="C395">
+        <v>2021</v>
+      </c>
+      <c r="D395" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E395" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F395" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G395" t="s">
+        <v>2511</v>
+      </c>
+      <c r="H395" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I395" t="s">
+        <v>249</v>
+      </c>
+      <c r="J395" t="s">
+        <v>30</v>
+      </c>
+      <c r="L395" t="s">
+        <v>48</v>
+      </c>
+      <c r="M395" t="s">
+        <v>48</v>
+      </c>
+      <c r="N395" t="s">
+        <v>2480</v>
+      </c>
+      <c r="O395" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P395" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q395">
+        <v>0</v>
+      </c>
+      <c r="R395" t="s">
+        <v>93</v>
+      </c>
+      <c r="S395" t="s">
+        <v>93</v>
+      </c>
+      <c r="T395">
+        <v>0</v>
+      </c>
+      <c r="W395" t="s">
+        <v>425</v>
+      </c>
+      <c r="X395" s="4" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" ht="224" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B396" t="s">
+        <v>23</v>
+      </c>
+      <c r="C396">
+        <v>2021</v>
+      </c>
+      <c r="D396" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E396" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F396" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G396" t="s">
+        <v>2517</v>
+      </c>
+      <c r="H396" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I396" t="s">
+        <v>249</v>
+      </c>
+      <c r="J396" t="s">
+        <v>58</v>
+      </c>
+      <c r="K396" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L396" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M396" t="s">
+        <v>370</v>
+      </c>
+      <c r="N396" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O396" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P396" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q396">
+        <v>1</v>
+      </c>
+      <c r="R396" t="s">
+        <v>93</v>
+      </c>
+      <c r="S396" t="s">
+        <v>93</v>
+      </c>
+      <c r="T396">
+        <v>0</v>
+      </c>
+      <c r="W396" t="s">
+        <v>223</v>
+      </c>
+      <c r="X396" s="4" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" ht="304" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B397" t="s">
+        <v>23</v>
+      </c>
+      <c r="C397">
+        <v>2021</v>
+      </c>
+      <c r="D397" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E397" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F397" t="s">
+        <v>297</v>
+      </c>
+      <c r="G397" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H397" t="s">
+        <v>2525</v>
+      </c>
+      <c r="I397" t="s">
+        <v>249</v>
+      </c>
+      <c r="J397" t="s">
+        <v>2526</v>
+      </c>
+      <c r="K397" t="s">
+        <v>278</v>
+      </c>
+      <c r="L397" t="s">
+        <v>2527</v>
+      </c>
+      <c r="M397" t="s">
+        <v>152</v>
+      </c>
+      <c r="N397" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O397" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P397" t="s">
+        <v>2528</v>
+      </c>
+      <c r="Q397">
+        <v>1</v>
+      </c>
+      <c r="R397" t="s">
+        <v>2529</v>
+      </c>
+      <c r="S397" t="s">
+        <v>93</v>
+      </c>
+      <c r="T397">
+        <v>0</v>
+      </c>
+      <c r="U397">
+        <v>1</v>
+      </c>
+      <c r="X397" s="4" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B398" t="s">
+        <v>23</v>
+      </c>
+      <c r="C398">
+        <v>2020</v>
+      </c>
+      <c r="D398" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E398" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G398" t="s">
+        <v>2533</v>
+      </c>
+      <c r="H398" t="s">
+        <v>2534</v>
+      </c>
+      <c r="I398" t="s">
+        <v>45</v>
+      </c>
+      <c r="J398" t="s">
+        <v>466</v>
+      </c>
+      <c r="K398" t="s">
+        <v>178</v>
+      </c>
+      <c r="L398" t="s">
+        <v>2535</v>
+      </c>
+      <c r="M398" t="s">
+        <v>95</v>
+      </c>
+      <c r="N398" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O398" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P398" t="s">
+        <v>2537</v>
+      </c>
+      <c r="Q398">
+        <v>0</v>
+      </c>
+      <c r="R398" t="s">
+        <v>2537</v>
+      </c>
+      <c r="S398" t="s">
+        <v>93</v>
+      </c>
+      <c r="T398">
+        <v>0</v>
+      </c>
+      <c r="U398">
+        <v>0</v>
+      </c>
+      <c r="W398" t="s">
+        <v>131</v>
+      </c>
+      <c r="X398" s="4" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" ht="272" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B399" t="s">
+        <v>23</v>
+      </c>
+      <c r="C399">
+        <v>2020</v>
+      </c>
+      <c r="D399" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E399" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F399" t="s">
+        <v>487</v>
+      </c>
+      <c r="G399" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H399" t="s">
+        <v>2542</v>
+      </c>
+      <c r="I399" t="s">
+        <v>45</v>
+      </c>
+      <c r="J399" t="s">
+        <v>84</v>
+      </c>
+      <c r="K399" t="s">
+        <v>520</v>
+      </c>
+      <c r="L399" t="s">
+        <v>279</v>
+      </c>
+      <c r="M399" t="s">
+        <v>280</v>
+      </c>
+      <c r="N399" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O399" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P399" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q399">
+        <v>0</v>
+      </c>
+      <c r="R399" t="s">
+        <v>93</v>
+      </c>
+      <c r="S399" t="s">
+        <v>93</v>
+      </c>
+      <c r="T399">
+        <v>0</v>
+      </c>
+      <c r="X399" s="4" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" ht="208" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>500</v>
+      </c>
+      <c r="B400" t="s">
+        <v>23</v>
+      </c>
+      <c r="C400">
+        <v>2019</v>
+      </c>
+      <c r="D400" t="s">
+        <v>501</v>
+      </c>
+      <c r="E400" t="s">
+        <v>502</v>
+      </c>
+      <c r="F400" t="s">
+        <v>503</v>
+      </c>
+      <c r="G400" t="s">
+        <v>504</v>
+      </c>
+      <c r="H400" t="s">
+        <v>505</v>
+      </c>
+      <c r="I400" t="s">
+        <v>29</v>
+      </c>
+      <c r="J400" t="s">
+        <v>74</v>
+      </c>
+      <c r="K400" t="s">
+        <v>379</v>
+      </c>
+      <c r="L400" t="s">
+        <v>129</v>
+      </c>
+      <c r="M400" t="s">
+        <v>129</v>
+      </c>
+      <c r="N400" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O400" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P400" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q400">
+        <v>0</v>
+      </c>
+      <c r="R400" t="s">
+        <v>32</v>
+      </c>
+      <c r="S400" t="s">
+        <v>32</v>
+      </c>
+      <c r="T400">
+        <v>0</v>
+      </c>
+      <c r="U400">
+        <v>1</v>
+      </c>
+      <c r="W400" t="s">
+        <v>215</v>
+      </c>
+      <c r="X400" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" ht="240" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B401" t="s">
+        <v>145</v>
+      </c>
+      <c r="C401">
+        <v>2019</v>
+      </c>
+      <c r="D401" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E401" t="s">
+        <v>2547</v>
+      </c>
+      <c r="G401" t="s">
+        <v>2548</v>
+      </c>
+      <c r="H401" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I401" t="s">
+        <v>29</v>
+      </c>
+      <c r="L401" t="s">
+        <v>311</v>
+      </c>
+      <c r="M401" t="s">
+        <v>152</v>
+      </c>
+      <c r="N401" t="s">
+        <v>2550</v>
+      </c>
+      <c r="O401" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P401" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q401">
+        <v>0</v>
+      </c>
+      <c r="R401" t="s">
+        <v>32</v>
+      </c>
+      <c r="S401" t="s">
+        <v>32</v>
+      </c>
+      <c r="T401">
+        <v>0</v>
+      </c>
+      <c r="U401">
+        <v>0</v>
+      </c>
+      <c r="X401" s="4" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" ht="176" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B402" t="s">
+        <v>23</v>
+      </c>
+      <c r="C402">
+        <v>2019</v>
+      </c>
+      <c r="D402" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E402" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F402" t="s">
+        <v>751</v>
+      </c>
+      <c r="G402" t="s">
+        <v>2554</v>
+      </c>
+      <c r="H402" t="s">
+        <v>2555</v>
+      </c>
+      <c r="I402" t="s">
+        <v>29</v>
+      </c>
+      <c r="J402" t="s">
+        <v>84</v>
+      </c>
+      <c r="K402" t="s">
+        <v>2556</v>
+      </c>
+      <c r="L402" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M402" t="s">
+        <v>152</v>
+      </c>
+      <c r="N402" t="s">
+        <v>2557</v>
+      </c>
+      <c r="O402" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P402" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q402">
+        <v>1</v>
+      </c>
+      <c r="R402" t="s">
+        <v>93</v>
+      </c>
+      <c r="S402" t="s">
+        <v>93</v>
+      </c>
+      <c r="T402">
+        <v>0</v>
+      </c>
+      <c r="U402">
+        <v>1</v>
+      </c>
+      <c r="V402" t="s">
+        <v>371</v>
+      </c>
+      <c r="W402" t="s">
+        <v>131</v>
+      </c>
+      <c r="X402" s="4" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" ht="128" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B403" t="s">
+        <v>89</v>
+      </c>
+      <c r="C403">
+        <v>2019</v>
+      </c>
+      <c r="D403" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E403" t="s">
+        <v>2560</v>
+      </c>
+      <c r="H403" t="s">
+        <v>2561</v>
+      </c>
+      <c r="I403" t="s">
+        <v>29</v>
+      </c>
+      <c r="K403" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L403" t="s">
+        <v>189</v>
+      </c>
+      <c r="M403" t="s">
+        <v>190</v>
+      </c>
+      <c r="N403" t="s">
+        <v>2563</v>
+      </c>
+      <c r="O403" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P403" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q403">
+        <v>1</v>
+      </c>
+      <c r="R403" t="s">
+        <v>93</v>
+      </c>
+      <c r="S403" t="s">
+        <v>93</v>
+      </c>
+      <c r="T403">
+        <v>1</v>
+      </c>
+      <c r="U403">
+        <v>1</v>
+      </c>
+      <c r="W403" t="s">
+        <v>831</v>
+      </c>
+      <c r="X403" s="4" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" ht="128" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B404" t="s">
+        <v>23</v>
+      </c>
+      <c r="C404">
+        <v>2018</v>
+      </c>
+      <c r="D404" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E404" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F404" t="s">
+        <v>533</v>
+      </c>
+      <c r="G404" t="s">
+        <v>2567</v>
+      </c>
+      <c r="H404" t="s">
+        <v>2568</v>
+      </c>
+      <c r="I404" t="s">
+        <v>73</v>
+      </c>
+      <c r="J404" t="s">
+        <v>115</v>
+      </c>
+      <c r="K404" t="s">
+        <v>114</v>
+      </c>
+      <c r="L404" t="s">
+        <v>230</v>
+      </c>
+      <c r="M404" t="s">
+        <v>95</v>
+      </c>
+      <c r="N404" t="s">
+        <v>2569</v>
+      </c>
+      <c r="O404" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P404" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q404">
+        <v>0</v>
+      </c>
+      <c r="R404" t="s">
+        <v>93</v>
+      </c>
+      <c r="S404" t="s">
+        <v>93</v>
+      </c>
+      <c r="T404">
+        <v>0</v>
+      </c>
+      <c r="U404">
+        <v>1</v>
+      </c>
+      <c r="V404" t="s">
+        <v>2597</v>
+      </c>
+      <c r="W404" t="s">
+        <v>131</v>
+      </c>
+      <c r="X404" s="4" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B405" t="s">
+        <v>23</v>
+      </c>
+      <c r="C405">
+        <v>2017</v>
+      </c>
+      <c r="D405" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E405" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F405" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G405" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H405" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I405" t="s">
+        <v>964</v>
+      </c>
+      <c r="J405" t="s">
+        <v>84</v>
+      </c>
+      <c r="K405" t="s">
+        <v>1540</v>
+      </c>
+      <c r="L405" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M405" t="s">
+        <v>36</v>
+      </c>
+      <c r="N405" t="s">
+        <v>2577</v>
+      </c>
+      <c r="O405" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P405" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q405">
+        <v>0</v>
+      </c>
+      <c r="R405" t="s">
+        <v>93</v>
+      </c>
+      <c r="S405" t="s">
+        <v>93</v>
+      </c>
+      <c r="T405">
+        <v>0</v>
+      </c>
+      <c r="U405">
+        <v>1</v>
+      </c>
+      <c r="W405" t="s">
+        <v>131</v>
+      </c>
+      <c r="X405" s="4" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="406" spans="1:24" ht="112" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B406" t="s">
+        <v>23</v>
+      </c>
+      <c r="C406">
+        <v>2020</v>
+      </c>
+      <c r="D406" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E406" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G406" t="s">
+        <v>2581</v>
+      </c>
+      <c r="H406" t="s">
+        <v>2582</v>
+      </c>
+      <c r="I406" t="s">
+        <v>45</v>
+      </c>
+      <c r="J406" t="s">
+        <v>115</v>
+      </c>
+      <c r="K406" t="s">
+        <v>570</v>
+      </c>
+      <c r="L406" t="s">
+        <v>48</v>
+      </c>
+      <c r="M406" t="s">
+        <v>48</v>
+      </c>
+      <c r="N406" t="s">
+        <v>2583</v>
+      </c>
+      <c r="O406" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P406" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q406">
+        <v>0</v>
+      </c>
+      <c r="R406" t="s">
+        <v>93</v>
+      </c>
+      <c r="S406" t="s">
+        <v>93</v>
+      </c>
+      <c r="T406">
+        <v>0</v>
+      </c>
+      <c r="U406">
+        <v>1</v>
+      </c>
+      <c r="X406" s="4" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="407" spans="1:24" ht="304" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B407" t="s">
+        <v>145</v>
+      </c>
+      <c r="C407">
+        <v>2020</v>
+      </c>
+      <c r="D407" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E407" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G407" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H407" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I407" t="s">
+        <v>45</v>
+      </c>
+      <c r="L407" t="s">
+        <v>48</v>
+      </c>
+      <c r="M407" t="s">
+        <v>48</v>
+      </c>
+      <c r="N407" t="s">
+        <v>2479</v>
+      </c>
+      <c r="O407" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P407" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q407">
+        <v>0</v>
+      </c>
+      <c r="R407" t="s">
+        <v>93</v>
+      </c>
+      <c r="S407" t="s">
+        <v>93</v>
+      </c>
+      <c r="T407">
+        <v>0</v>
+      </c>
+      <c r="X407" s="4" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" ht="128" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B408" t="s">
+        <v>23</v>
+      </c>
+      <c r="C408">
+        <v>2020</v>
+      </c>
+      <c r="D408" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E408" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F408" t="s">
+        <v>686</v>
+      </c>
+      <c r="G408" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H408" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I408" t="s">
+        <v>45</v>
+      </c>
+      <c r="L408" t="s">
+        <v>48</v>
+      </c>
+      <c r="M408" t="s">
+        <v>48</v>
+      </c>
+      <c r="N408" t="s">
+        <v>2594</v>
+      </c>
+      <c r="O408" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P408" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q408">
+        <v>1</v>
+      </c>
+      <c r="R408" t="s">
+        <v>93</v>
+      </c>
+      <c r="S408" t="s">
+        <v>93</v>
+      </c>
+      <c r="T408">
+        <v>0</v>
+      </c>
+      <c r="X408" s="4" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>825</v>
+      </c>
+      <c r="B409" t="s">
+        <v>23</v>
+      </c>
+      <c r="C409">
+        <v>2019</v>
+      </c>
+      <c r="D409" t="s">
+        <v>826</v>
+      </c>
+      <c r="E409" t="s">
+        <v>827</v>
+      </c>
+      <c r="F409" t="s">
+        <v>686</v>
+      </c>
+      <c r="G409" t="s">
+        <v>828</v>
+      </c>
+      <c r="H409" t="s">
+        <v>829</v>
+      </c>
+      <c r="I409" t="s">
+        <v>29</v>
+      </c>
+      <c r="J409" t="s">
+        <v>178</v>
+      </c>
+      <c r="K409" t="s">
+        <v>222</v>
+      </c>
+      <c r="L409" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M409" t="s">
+        <v>190</v>
+      </c>
+      <c r="N409" t="s">
+        <v>2595</v>
+      </c>
+      <c r="O409" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P409" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q409">
+        <v>0</v>
+      </c>
+      <c r="R409" t="s">
+        <v>99</v>
+      </c>
+      <c r="S409" t="s">
+        <v>99</v>
+      </c>
+      <c r="T409">
+        <v>1</v>
+      </c>
+      <c r="U409">
+        <v>1</v>
+      </c>
+      <c r="V409" t="s">
+        <v>887</v>
+      </c>
+      <c r="W409" t="s">
+        <v>831</v>
+      </c>
+      <c r="X409" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" ht="240" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B410" t="s">
+        <v>23</v>
+      </c>
+      <c r="C410">
+        <v>2019</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F410" t="s">
+        <v>297</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H410" t="s">
+        <v>1909</v>
+      </c>
+      <c r="I410" t="s">
+        <v>29</v>
+      </c>
+      <c r="J410" t="s">
+        <v>74</v>
+      </c>
+      <c r="K410" t="s">
+        <v>466</v>
+      </c>
+      <c r="L410" t="s">
+        <v>189</v>
+      </c>
+      <c r="M410" t="s">
+        <v>190</v>
+      </c>
+      <c r="N410" t="s">
+        <v>2596</v>
+      </c>
+      <c r="O410" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P410" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q410">
+        <v>1</v>
+      </c>
+      <c r="R410" t="s">
+        <v>181</v>
+      </c>
+      <c r="S410" t="s">
+        <v>32</v>
+      </c>
+      <c r="T410">
+        <v>0</v>
+      </c>
+      <c r="U410">
+        <v>1</v>
+      </c>
+      <c r="V410" t="s">
+        <v>1623</v>
+      </c>
+      <c r="X410" s="4" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="411" spans="1:24" ht="240" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B411" t="s">
+        <v>23</v>
+      </c>
+      <c r="C411">
+        <v>2019</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F411" t="s">
+        <v>297</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H411" t="s">
+        <v>1909</v>
+      </c>
+      <c r="I411" t="s">
+        <v>29</v>
+      </c>
+      <c r="J411" t="s">
+        <v>74</v>
+      </c>
+      <c r="K411" t="s">
+        <v>466</v>
+      </c>
+      <c r="L411" t="s">
+        <v>189</v>
+      </c>
+      <c r="M411" t="s">
+        <v>190</v>
+      </c>
+      <c r="N411" t="s">
+        <v>2596</v>
+      </c>
+      <c r="O411" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P411" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q411">
+        <v>1</v>
+      </c>
+      <c r="R411" t="s">
+        <v>181</v>
+      </c>
+      <c r="S411" t="s">
+        <v>32</v>
+      </c>
+      <c r="T411">
+        <v>0</v>
+      </c>
+      <c r="U411">
+        <v>-1</v>
+      </c>
+      <c r="V411" t="s">
+        <v>2598</v>
+      </c>
+      <c r="X411" s="4" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B412" t="s">
+        <v>23</v>
+      </c>
+      <c r="C412">
+        <v>2019</v>
+      </c>
+      <c r="D412" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E412" t="s">
+        <v>2601</v>
+      </c>
+      <c r="F412" t="s">
+        <v>2602</v>
+      </c>
+      <c r="G412" t="s">
+        <v>2603</v>
+      </c>
+      <c r="H412" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I412" t="s">
+        <v>29</v>
+      </c>
+      <c r="J412" t="s">
+        <v>84</v>
+      </c>
+      <c r="K412" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L412" t="s">
+        <v>2605</v>
+      </c>
+      <c r="M412" t="s">
+        <v>95</v>
+      </c>
+      <c r="N412" t="s">
+        <v>2606</v>
+      </c>
+      <c r="O412" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P412" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q412">
+        <v>1</v>
+      </c>
+      <c r="R412" t="s">
+        <v>93</v>
+      </c>
+      <c r="S412" t="s">
+        <v>93</v>
+      </c>
+      <c r="T412">
+        <v>0</v>
+      </c>
+      <c r="U412">
+        <v>0</v>
+      </c>
+      <c r="V412" t="s">
+        <v>120</v>
+      </c>
+      <c r="W412" t="s">
+        <v>131</v>
+      </c>
+      <c r="X412" s="4" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" ht="208" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B413" t="s">
+        <v>23</v>
+      </c>
+      <c r="C413">
+        <v>2018</v>
+      </c>
+      <c r="D413" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E413" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F413" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G413" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H413" t="s">
+        <v>2612</v>
+      </c>
+      <c r="I413" t="s">
+        <v>73</v>
+      </c>
+      <c r="J413" t="s">
+        <v>58</v>
+      </c>
+      <c r="K413" t="s">
+        <v>212</v>
+      </c>
+      <c r="L413" t="s">
+        <v>2613</v>
+      </c>
+      <c r="M413" t="s">
+        <v>370</v>
+      </c>
+      <c r="N413" t="s">
+        <v>2614</v>
+      </c>
+      <c r="O413" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P413" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q413">
+        <v>0</v>
+      </c>
+      <c r="R413" t="s">
+        <v>304</v>
+      </c>
+      <c r="S413" t="s">
+        <v>64</v>
+      </c>
+      <c r="T413">
+        <v>0</v>
+      </c>
+      <c r="U413">
+        <v>1</v>
+      </c>
+      <c r="X413" s="4" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B414" t="s">
+        <v>23</v>
+      </c>
+      <c r="C414">
+        <v>2019</v>
+      </c>
+      <c r="D414" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E414" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F414" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G414" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H414" t="s">
+        <v>2620</v>
+      </c>
+      <c r="I414" t="s">
+        <v>29</v>
+      </c>
+      <c r="J414" t="s">
+        <v>30</v>
+      </c>
+      <c r="K414" t="s">
+        <v>115</v>
+      </c>
+      <c r="L414" t="s">
+        <v>251</v>
+      </c>
+      <c r="M414" t="s">
+        <v>152</v>
+      </c>
+      <c r="N414" t="s">
+        <v>2621</v>
+      </c>
+      <c r="O414" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P414" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q414">
+        <v>0</v>
+      </c>
+      <c r="R414" t="s">
+        <v>64</v>
+      </c>
+      <c r="S414" t="s">
+        <v>64</v>
+      </c>
+      <c r="T414">
+        <v>0</v>
+      </c>
+      <c r="U414">
+        <v>1</v>
+      </c>
+      <c r="W414" t="s">
+        <v>131</v>
+      </c>
+      <c r="X414" s="4" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B415" t="s">
+        <v>23</v>
+      </c>
+      <c r="C415">
+        <v>2019</v>
+      </c>
+      <c r="D415" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E415" t="s">
+        <v>2624</v>
+      </c>
+      <c r="F415" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G415" t="s">
+        <v>2626</v>
+      </c>
+      <c r="H415" t="s">
+        <v>2627</v>
+      </c>
+      <c r="I415" t="s">
+        <v>29</v>
+      </c>
+      <c r="K415" t="s">
+        <v>805</v>
+      </c>
+      <c r="L415" t="s">
+        <v>48</v>
+      </c>
+      <c r="M415" t="s">
+        <v>48</v>
+      </c>
+      <c r="N415" t="s">
+        <v>2486</v>
+      </c>
+      <c r="O415" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P415" t="s">
+        <v>2628</v>
+      </c>
+      <c r="Q415">
+        <v>1</v>
+      </c>
+      <c r="R415" t="s">
+        <v>304</v>
+      </c>
+      <c r="S415" t="s">
+        <v>64</v>
+      </c>
+      <c r="T415">
+        <v>0</v>
+      </c>
+      <c r="X415" s="4" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="416" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B416" t="s">
+        <v>23</v>
+      </c>
+      <c r="C416">
+        <v>2019</v>
+      </c>
+      <c r="D416" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E416" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F416" t="s">
+        <v>103</v>
+      </c>
+      <c r="H416" t="s">
+        <v>2632</v>
+      </c>
+      <c r="I416" t="s">
+        <v>29</v>
+      </c>
+      <c r="K416" t="s">
+        <v>319</v>
+      </c>
+      <c r="L416" t="s">
+        <v>251</v>
+      </c>
+      <c r="M416" t="s">
+        <v>152</v>
+      </c>
+      <c r="N416" t="s">
+        <v>2633</v>
+      </c>
+      <c r="O416" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P416" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q416">
+        <v>0</v>
+      </c>
+      <c r="R416" t="s">
+        <v>64</v>
+      </c>
+      <c r="S416" t="s">
+        <v>64</v>
+      </c>
+      <c r="T416">
+        <v>0</v>
+      </c>
+      <c r="W416" t="s">
+        <v>2634</v>
+      </c>
+      <c r="X416" s="4" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="417" spans="1:24" ht="176" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B417" t="s">
+        <v>23</v>
+      </c>
+      <c r="C417">
+        <v>2018</v>
+      </c>
+      <c r="D417" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E417" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G417" t="s">
+        <v>2638</v>
+      </c>
+      <c r="H417" t="s">
+        <v>2639</v>
+      </c>
+      <c r="I417" t="s">
+        <v>73</v>
+      </c>
+      <c r="J417" t="s">
+        <v>212</v>
+      </c>
+      <c r="K417" t="s">
+        <v>1947</v>
+      </c>
+      <c r="L417" t="s">
+        <v>311</v>
+      </c>
+      <c r="M417" t="s">
+        <v>152</v>
+      </c>
+      <c r="N417" t="s">
+        <v>2640</v>
+      </c>
+      <c r="O417" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P417" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q417">
+        <v>0</v>
+      </c>
+      <c r="R417" t="s">
+        <v>64</v>
+      </c>
+      <c r="S417" t="s">
+        <v>64</v>
+      </c>
+      <c r="T417">
+        <v>0</v>
+      </c>
+      <c r="U417">
+        <v>1</v>
+      </c>
+      <c r="W417" t="s">
+        <v>330</v>
+      </c>
+      <c r="X417" s="4" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="418" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B418" t="s">
+        <v>23</v>
+      </c>
+      <c r="C418">
+        <v>2020</v>
+      </c>
+      <c r="D418" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E418" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F418" t="s">
+        <v>2644</v>
+      </c>
+      <c r="G418" t="s">
+        <v>2645</v>
+      </c>
+      <c r="H418" t="s">
+        <v>2646</v>
+      </c>
+      <c r="I418" t="s">
+        <v>45</v>
+      </c>
+      <c r="J418" t="s">
+        <v>140</v>
+      </c>
+      <c r="K418" t="s">
+        <v>58</v>
+      </c>
+      <c r="L418" t="s">
+        <v>329</v>
+      </c>
+      <c r="M418" t="s">
+        <v>95</v>
+      </c>
+      <c r="N418" t="s">
+        <v>2647</v>
+      </c>
+      <c r="O418" t="s">
+        <v>2479</v>
+      </c>
+      <c r="P418" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q418">
+        <v>1</v>
+      </c>
+      <c r="R418" t="s">
+        <v>93</v>
+      </c>
+      <c r="S418" t="s">
+        <v>93</v>
+      </c>
+      <c r="T418">
+        <v>0</v>
+      </c>
+      <c r="U418">
+        <v>0</v>
+      </c>
+      <c r="W418" t="s">
+        <v>131</v>
+      </c>
+      <c r="X418" s="4" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B419" t="s">
+        <v>23</v>
+      </c>
+      <c r="C419">
+        <v>2018</v>
+      </c>
+      <c r="D419" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E419" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F419" t="s">
+        <v>195</v>
+      </c>
+      <c r="G419" t="s">
+        <v>2651</v>
+      </c>
+      <c r="H419" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I419" t="s">
+        <v>2653</v>
+      </c>
+      <c r="J419" t="s">
+        <v>115</v>
+      </c>
+      <c r="K419" t="s">
+        <v>114</v>
+      </c>
+      <c r="L419" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M419" t="s">
+        <v>36</v>
+      </c>
+      <c r="N419" t="s">
+        <v>2654</v>
+      </c>
+      <c r="O419" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P419" t="s">
+        <v>2655</v>
+      </c>
+      <c r="Q419">
+        <v>1</v>
+      </c>
+      <c r="R419" t="s">
+        <v>2656</v>
+      </c>
+      <c r="S419" t="s">
+        <v>2656</v>
+      </c>
+      <c r="T419">
+        <v>0</v>
+      </c>
+      <c r="U419">
+        <v>-1</v>
+      </c>
+      <c r="V419" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W419" t="s">
+        <v>600</v>
+      </c>
+      <c r="X419" s="4" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="420" spans="1:24" ht="208" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>372</v>
+      </c>
+      <c r="B420" t="s">
+        <v>23</v>
+      </c>
+      <c r="C420">
+        <v>2020</v>
+      </c>
+      <c r="D420" t="s">
+        <v>373</v>
+      </c>
+      <c r="E420" t="s">
+        <v>374</v>
+      </c>
+      <c r="F420" t="s">
+        <v>375</v>
+      </c>
+      <c r="G420" t="s">
+        <v>376</v>
+      </c>
+      <c r="H420" t="s">
+        <v>377</v>
+      </c>
+      <c r="I420" t="s">
+        <v>378</v>
+      </c>
+      <c r="J420" t="s">
+        <v>30</v>
+      </c>
+      <c r="K420" t="s">
+        <v>379</v>
+      </c>
+      <c r="L420" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M420" t="s">
+        <v>152</v>
+      </c>
+      <c r="N420" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O420" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P420" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420" t="s">
+        <v>93</v>
+      </c>
+      <c r="S420" t="s">
+        <v>93</v>
+      </c>
+      <c r="T420">
+        <v>0</v>
+      </c>
+      <c r="U420">
+        <v>1</v>
+      </c>
+      <c r="V420" t="s">
+        <v>371</v>
+      </c>
+      <c r="W420" t="s">
+        <v>330</v>
+      </c>
+      <c r="X420" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" ht="176" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>467</v>
+      </c>
+      <c r="B421" t="s">
+        <v>23</v>
+      </c>
+      <c r="C421">
+        <v>2016</v>
+      </c>
+      <c r="D421" t="s">
+        <v>468</v>
+      </c>
+      <c r="E421" t="s">
+        <v>469</v>
+      </c>
+      <c r="F421" t="s">
+        <v>470</v>
+      </c>
+      <c r="G421" t="s">
+        <v>471</v>
+      </c>
+      <c r="H421" t="s">
+        <v>472</v>
+      </c>
+      <c r="I421" t="s">
+        <v>473</v>
+      </c>
+      <c r="J421" t="s">
+        <v>74</v>
+      </c>
+      <c r="K421" t="s">
+        <v>169</v>
+      </c>
+      <c r="L421" t="s">
+        <v>48</v>
+      </c>
+      <c r="M421" t="s">
+        <v>48</v>
+      </c>
+      <c r="N421" t="s">
+        <v>474</v>
+      </c>
+      <c r="O421" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P421" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+      <c r="R421" t="s">
+        <v>99</v>
+      </c>
+      <c r="S421" t="s">
+        <v>99</v>
+      </c>
+      <c r="T421">
+        <v>0</v>
+      </c>
+      <c r="U421">
+        <v>-1</v>
+      </c>
+      <c r="W421" t="s">
+        <v>476</v>
+      </c>
+      <c r="X421" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" ht="176" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B422" t="s">
+        <v>23</v>
+      </c>
+      <c r="C422">
+        <v>2020</v>
+      </c>
+      <c r="D422" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E422" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F422" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G422" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H422" t="s">
+        <v>2662</v>
+      </c>
+      <c r="I422" t="s">
+        <v>877</v>
+      </c>
+      <c r="J422" t="s">
+        <v>58</v>
+      </c>
+      <c r="K422" t="s">
+        <v>379</v>
+      </c>
+      <c r="L422" t="s">
+        <v>1471</v>
+      </c>
+      <c r="M422" t="s">
+        <v>36</v>
+      </c>
+      <c r="N422" t="s">
+        <v>2463</v>
+      </c>
+      <c r="O422" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P422" t="s">
+        <v>2528</v>
+      </c>
+      <c r="Q422">
+        <v>1</v>
+      </c>
+      <c r="R422" t="s">
+        <v>2529</v>
+      </c>
+      <c r="S422" t="s">
+        <v>93</v>
+      </c>
+      <c r="T422">
+        <v>0</v>
+      </c>
+      <c r="U422">
+        <v>0</v>
+      </c>
+      <c r="V422" t="s">
+        <v>2675</v>
+      </c>
+      <c r="W422" t="s">
+        <v>107</v>
+      </c>
+      <c r="X422" s="4" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" ht="192" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B423" t="s">
+        <v>23</v>
+      </c>
+      <c r="D423" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E423" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F423" t="s">
+        <v>686</v>
+      </c>
+      <c r="G423" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H423" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L423" t="s">
+        <v>2668</v>
+      </c>
+      <c r="M423" t="s">
+        <v>129</v>
+      </c>
+      <c r="N423" t="s">
+        <v>2463</v>
+      </c>
+      <c r="O423" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P423" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q423">
+        <v>0</v>
+      </c>
+      <c r="R423" t="s">
+        <v>64</v>
+      </c>
+      <c r="S423" t="s">
+        <v>64</v>
+      </c>
+      <c r="T423">
+        <v>0</v>
+      </c>
+      <c r="W423" t="s">
+        <v>1863</v>
+      </c>
+      <c r="X423" s="4" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B424" t="s">
+        <v>23</v>
+      </c>
+      <c r="C424">
+        <v>2021</v>
+      </c>
+      <c r="D424" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E424" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G424" t="s">
+        <v>2672</v>
+      </c>
+      <c r="H424" t="s">
+        <v>2673</v>
+      </c>
+      <c r="I424" t="s">
+        <v>249</v>
+      </c>
+      <c r="J424" t="s">
+        <v>84</v>
+      </c>
+      <c r="K424" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L424" t="s">
+        <v>48</v>
+      </c>
+      <c r="M424" t="s">
+        <v>48</v>
+      </c>
+      <c r="N424" t="s">
+        <v>2674</v>
+      </c>
+      <c r="O424" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P424" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q424">
+        <v>1</v>
+      </c>
+      <c r="R424" t="s">
+        <v>300</v>
+      </c>
+      <c r="S424" t="s">
+        <v>300</v>
+      </c>
+      <c r="T424">
+        <v>0</v>
+      </c>
+      <c r="U424">
+        <v>-1</v>
+      </c>
+      <c r="V424" t="s">
+        <v>820</v>
+      </c>
+      <c r="W424" t="s">
+        <v>131</v>
+      </c>
+      <c r="X424" s="4" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="425" spans="1:24" ht="144" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B425" t="s">
+        <v>23</v>
+      </c>
+      <c r="C425">
+        <v>2018</v>
+      </c>
+      <c r="D425" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F425" t="s">
+        <v>899</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H425" t="s">
+        <v>2354</v>
+      </c>
+      <c r="I425" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J425" t="s">
+        <v>30</v>
+      </c>
+      <c r="K425" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L425" t="s">
+        <v>48</v>
+      </c>
+      <c r="M425" t="s">
+        <v>48</v>
+      </c>
+      <c r="N425" t="s">
+        <v>474</v>
+      </c>
+      <c r="O425" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P425" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q425">
+        <v>0</v>
+      </c>
+      <c r="R425" t="s">
+        <v>99</v>
+      </c>
+      <c r="S425" t="s">
+        <v>99</v>
+      </c>
+      <c r="T425">
+        <v>0</v>
+      </c>
+      <c r="W425" t="s">
+        <v>2356</v>
+      </c>
+      <c r="X425" s="4" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="426" spans="1:24" ht="160" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B426" t="s">
+        <v>23</v>
+      </c>
+      <c r="C426">
+        <v>2017</v>
+      </c>
+      <c r="D426" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E426" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F426" t="s">
+        <v>195</v>
+      </c>
+      <c r="G426" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H426" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I426" t="s">
+        <v>2367</v>
+      </c>
+      <c r="J426" t="s">
+        <v>520</v>
+      </c>
+      <c r="K426" t="s">
+        <v>268</v>
+      </c>
+      <c r="L426" t="s">
+        <v>48</v>
+      </c>
+      <c r="M426" t="s">
+        <v>48</v>
+      </c>
+      <c r="N426" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O426" t="s">
+        <v>2397</v>
+      </c>
+      <c r="P426" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q426">
+        <v>0</v>
+      </c>
+      <c r="R426" t="s">
+        <v>93</v>
+      </c>
+      <c r="S426" t="s">
+        <v>93</v>
+      </c>
+      <c r="T426">
+        <v>0</v>
+      </c>
+      <c r="U426">
+        <v>1</v>
+      </c>
+      <c r="V426" t="s">
+        <v>371</v>
+      </c>
+      <c r="W426" t="s">
+        <v>131</v>
+      </c>
+      <c r="X426" s="4" t="s">
+        <v>2366</v>
       </c>
     </row>
   </sheetData>
